--- a/outputs-HGR-r202/c__Bacteroidia.xlsx
+++ b/outputs-HGR-r202/c__Bacteroidia.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E205"/>
+  <dimension ref="A1:F205"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -460,6 +460,11 @@
           <t>prediction</t>
         </is>
       </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>rejection-f</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
@@ -481,6 +486,11 @@
           <t>o__Bacteroidales</t>
         </is>
       </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>o__Bacteroidales</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
@@ -502,6 +512,11 @@
           <t>o__Bacteroidales</t>
         </is>
       </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>o__Bacteroidales</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -523,6 +538,11 @@
           <t>o__Bacteroidales</t>
         </is>
       </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>o__Bacteroidales</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
@@ -544,6 +564,11 @@
           <t>o__Bacteroidales</t>
         </is>
       </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>o__Bacteroidales</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
@@ -565,6 +590,11 @@
           <t>o__Bacteroidales</t>
         </is>
       </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>o__Bacteroidales</t>
+        </is>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
@@ -586,6 +616,11 @@
           <t>o__Bacteroidales</t>
         </is>
       </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>o__Bacteroidales</t>
+        </is>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
@@ -607,6 +642,11 @@
           <t>o__Bacteroidales</t>
         </is>
       </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>o__Bacteroidales</t>
+        </is>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
@@ -628,6 +668,11 @@
           <t>o__Bacteroidales</t>
         </is>
       </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>o__Bacteroidales</t>
+        </is>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
@@ -649,6 +694,11 @@
           <t>o__Bacteroidales</t>
         </is>
       </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>o__Bacteroidales</t>
+        </is>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
@@ -670,6 +720,11 @@
           <t>o__Bacteroidales</t>
         </is>
       </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>o__Bacteroidales</t>
+        </is>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
@@ -691,6 +746,11 @@
           <t>o__Bacteroidales</t>
         </is>
       </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>o__Bacteroidales</t>
+        </is>
+      </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
@@ -712,6 +772,11 @@
           <t>o__Bacteroidales</t>
         </is>
       </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>o__Bacteroidales</t>
+        </is>
+      </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
@@ -733,6 +798,11 @@
           <t>o__Bacteroidales</t>
         </is>
       </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>o__Bacteroidales</t>
+        </is>
+      </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
@@ -754,6 +824,11 @@
           <t>o__Bacteroidales</t>
         </is>
       </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>o__Bacteroidales</t>
+        </is>
+      </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
@@ -775,6 +850,11 @@
           <t>o__Bacteroidales</t>
         </is>
       </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>o__Bacteroidales</t>
+        </is>
+      </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
@@ -796,6 +876,11 @@
           <t>o__Bacteroidales</t>
         </is>
       </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>o__Bacteroidales</t>
+        </is>
+      </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
@@ -817,6 +902,11 @@
           <t>o__Bacteroidales</t>
         </is>
       </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>o__Bacteroidales</t>
+        </is>
+      </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
@@ -838,6 +928,11 @@
           <t>o__Bacteroidales</t>
         </is>
       </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>o__Bacteroidales</t>
+        </is>
+      </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
@@ -859,6 +954,11 @@
           <t>o__Bacteroidales</t>
         </is>
       </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>o__Bacteroidales</t>
+        </is>
+      </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
@@ -880,6 +980,11 @@
           <t>o__Bacteroidales</t>
         </is>
       </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>o__Bacteroidales</t>
+        </is>
+      </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
@@ -901,6 +1006,11 @@
           <t>o__Bacteroidales</t>
         </is>
       </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>o__Bacteroidales</t>
+        </is>
+      </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
@@ -922,6 +1032,11 @@
           <t>o__Bacteroidales</t>
         </is>
       </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>o__Bacteroidales</t>
+        </is>
+      </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
@@ -943,6 +1058,11 @@
           <t>o__Bacteroidales</t>
         </is>
       </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>o__Bacteroidales</t>
+        </is>
+      </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
@@ -964,6 +1084,11 @@
           <t>o__Bacteroidales</t>
         </is>
       </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>o__Bacteroidales</t>
+        </is>
+      </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="inlineStr">
@@ -985,6 +1110,11 @@
           <t>o__Bacteroidales</t>
         </is>
       </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>o__Bacteroidales</t>
+        </is>
+      </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="inlineStr">
@@ -1006,6 +1136,11 @@
           <t>o__Bacteroidales</t>
         </is>
       </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>o__Bacteroidales</t>
+        </is>
+      </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="inlineStr">
@@ -1027,6 +1162,11 @@
           <t>o__Bacteroidales</t>
         </is>
       </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>o__Bacteroidales</t>
+        </is>
+      </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="inlineStr">
@@ -1048,6 +1188,11 @@
           <t>o__Bacteroidales</t>
         </is>
       </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>o__Bacteroidales</t>
+        </is>
+      </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="inlineStr">
@@ -1069,6 +1214,11 @@
           <t>o__Bacteroidales</t>
         </is>
       </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>o__Bacteroidales</t>
+        </is>
+      </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="inlineStr">
@@ -1090,6 +1240,11 @@
           <t>o__Bacteroidales</t>
         </is>
       </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>o__Bacteroidales</t>
+        </is>
+      </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="inlineStr">
@@ -1111,6 +1266,11 @@
           <t>o__Bacteroidales</t>
         </is>
       </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>o__Bacteroidales</t>
+        </is>
+      </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="inlineStr">
@@ -1132,6 +1292,11 @@
           <t>o__Bacteroidales</t>
         </is>
       </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>o__Bacteroidales</t>
+        </is>
+      </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="inlineStr">
@@ -1153,6 +1318,11 @@
           <t>o__Bacteroidales</t>
         </is>
       </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>o__Bacteroidales</t>
+        </is>
+      </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="inlineStr">
@@ -1174,6 +1344,11 @@
           <t>o__Bacteroidales</t>
         </is>
       </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>o__Bacteroidales</t>
+        </is>
+      </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="inlineStr">
@@ -1195,6 +1370,11 @@
           <t>o__Bacteroidales</t>
         </is>
       </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>o__Bacteroidales</t>
+        </is>
+      </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="inlineStr">
@@ -1216,6 +1396,11 @@
           <t>o__Bacteroidales</t>
         </is>
       </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>o__Bacteroidales</t>
+        </is>
+      </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="inlineStr">
@@ -1237,6 +1422,11 @@
           <t>o__Bacteroidales</t>
         </is>
       </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>o__Bacteroidales</t>
+        </is>
+      </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="inlineStr">
@@ -1258,6 +1448,11 @@
           <t>o__Bacteroidales</t>
         </is>
       </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>o__Bacteroidales</t>
+        </is>
+      </c>
     </row>
     <row r="40">
       <c r="A40" s="1" t="inlineStr">
@@ -1279,6 +1474,11 @@
           <t>o__Bacteroidales</t>
         </is>
       </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>o__Bacteroidales</t>
+        </is>
+      </c>
     </row>
     <row r="41">
       <c r="A41" s="1" t="inlineStr">
@@ -1300,6 +1500,11 @@
           <t>o__Bacteroidales</t>
         </is>
       </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>o__Bacteroidales</t>
+        </is>
+      </c>
     </row>
     <row r="42">
       <c r="A42" s="1" t="inlineStr">
@@ -1321,6 +1526,11 @@
           <t>o__Bacteroidales</t>
         </is>
       </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>o__Bacteroidales</t>
+        </is>
+      </c>
     </row>
     <row r="43">
       <c r="A43" s="1" t="inlineStr">
@@ -1342,6 +1552,11 @@
           <t>o__Bacteroidales</t>
         </is>
       </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>o__Bacteroidales</t>
+        </is>
+      </c>
     </row>
     <row r="44">
       <c r="A44" s="1" t="inlineStr">
@@ -1363,6 +1578,11 @@
           <t>o__Bacteroidales</t>
         </is>
       </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>o__Bacteroidales</t>
+        </is>
+      </c>
     </row>
     <row r="45">
       <c r="A45" s="1" t="inlineStr">
@@ -1384,6 +1604,11 @@
           <t>o__Bacteroidales</t>
         </is>
       </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>o__Bacteroidales</t>
+        </is>
+      </c>
     </row>
     <row r="46">
       <c r="A46" s="1" t="inlineStr">
@@ -1405,6 +1630,11 @@
           <t>o__Bacteroidales</t>
         </is>
       </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>o__Bacteroidales</t>
+        </is>
+      </c>
     </row>
     <row r="47">
       <c r="A47" s="1" t="inlineStr">
@@ -1426,6 +1656,11 @@
           <t>o__Bacteroidales</t>
         </is>
       </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>o__Bacteroidales</t>
+        </is>
+      </c>
     </row>
     <row r="48">
       <c r="A48" s="1" t="inlineStr">
@@ -1447,6 +1682,11 @@
           <t>o__Bacteroidales</t>
         </is>
       </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>o__Bacteroidales</t>
+        </is>
+      </c>
     </row>
     <row r="49">
       <c r="A49" s="1" t="inlineStr">
@@ -1468,6 +1708,11 @@
           <t>o__Bacteroidales</t>
         </is>
       </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>o__Bacteroidales</t>
+        </is>
+      </c>
     </row>
     <row r="50">
       <c r="A50" s="1" t="inlineStr">
@@ -1489,6 +1734,11 @@
           <t>o__Bacteroidales</t>
         </is>
       </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>o__Bacteroidales</t>
+        </is>
+      </c>
     </row>
     <row r="51">
       <c r="A51" s="1" t="inlineStr">
@@ -1510,6 +1760,11 @@
           <t>o__Bacteroidales</t>
         </is>
       </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>o__Bacteroidales</t>
+        </is>
+      </c>
     </row>
     <row r="52">
       <c r="A52" s="1" t="inlineStr">
@@ -1531,6 +1786,11 @@
           <t>o__Bacteroidales</t>
         </is>
       </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>o__Bacteroidales</t>
+        </is>
+      </c>
     </row>
     <row r="53">
       <c r="A53" s="1" t="inlineStr">
@@ -1552,6 +1812,11 @@
           <t>o__Bacteroidales</t>
         </is>
       </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>o__Bacteroidales</t>
+        </is>
+      </c>
     </row>
     <row r="54">
       <c r="A54" s="1" t="inlineStr">
@@ -1573,6 +1838,11 @@
           <t>o__Bacteroidales</t>
         </is>
       </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>o__Bacteroidales</t>
+        </is>
+      </c>
     </row>
     <row r="55">
       <c r="A55" s="1" t="inlineStr">
@@ -1594,6 +1864,11 @@
           <t>o__Bacteroidales</t>
         </is>
       </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>o__Bacteroidales</t>
+        </is>
+      </c>
     </row>
     <row r="56">
       <c r="A56" s="1" t="inlineStr">
@@ -1615,6 +1890,11 @@
           <t>o__Bacteroidales</t>
         </is>
       </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>o__Bacteroidales</t>
+        </is>
+      </c>
     </row>
     <row r="57">
       <c r="A57" s="1" t="inlineStr">
@@ -1636,6 +1916,11 @@
           <t>o__Bacteroidales</t>
         </is>
       </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>o__Bacteroidales</t>
+        </is>
+      </c>
     </row>
     <row r="58">
       <c r="A58" s="1" t="inlineStr">
@@ -1657,6 +1942,11 @@
           <t>o__Bacteroidales</t>
         </is>
       </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>o__Bacteroidales</t>
+        </is>
+      </c>
     </row>
     <row r="59">
       <c r="A59" s="1" t="inlineStr">
@@ -1678,6 +1968,11 @@
           <t>o__Bacteroidales</t>
         </is>
       </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>o__Bacteroidales</t>
+        </is>
+      </c>
     </row>
     <row r="60">
       <c r="A60" s="1" t="inlineStr">
@@ -1699,6 +1994,11 @@
           <t>o__Bacteroidales</t>
         </is>
       </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>o__Bacteroidales</t>
+        </is>
+      </c>
     </row>
     <row r="61">
       <c r="A61" s="1" t="inlineStr">
@@ -1720,6 +2020,11 @@
           <t>o__Bacteroidales</t>
         </is>
       </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>o__Bacteroidales</t>
+        </is>
+      </c>
     </row>
     <row r="62">
       <c r="A62" s="1" t="inlineStr">
@@ -1741,6 +2046,11 @@
           <t>o__Bacteroidales</t>
         </is>
       </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>o__Bacteroidales</t>
+        </is>
+      </c>
     </row>
     <row r="63">
       <c r="A63" s="1" t="inlineStr">
@@ -1762,6 +2072,11 @@
           <t>o__Bacteroidales</t>
         </is>
       </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>o__Bacteroidales</t>
+        </is>
+      </c>
     </row>
     <row r="64">
       <c r="A64" s="1" t="inlineStr">
@@ -1783,6 +2098,11 @@
           <t>o__Bacteroidales</t>
         </is>
       </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>o__Bacteroidales</t>
+        </is>
+      </c>
     </row>
     <row r="65">
       <c r="A65" s="1" t="inlineStr">
@@ -1804,6 +2124,11 @@
           <t>o__Bacteroidales</t>
         </is>
       </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>o__Bacteroidales</t>
+        </is>
+      </c>
     </row>
     <row r="66">
       <c r="A66" s="1" t="inlineStr">
@@ -1825,6 +2150,11 @@
           <t>o__Bacteroidales</t>
         </is>
       </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>o__Bacteroidales</t>
+        </is>
+      </c>
     </row>
     <row r="67">
       <c r="A67" s="1" t="inlineStr">
@@ -1846,6 +2176,11 @@
           <t>o__Bacteroidales</t>
         </is>
       </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>o__Bacteroidales</t>
+        </is>
+      </c>
     </row>
     <row r="68">
       <c r="A68" s="1" t="inlineStr">
@@ -1867,6 +2202,11 @@
           <t>o__Bacteroidales</t>
         </is>
       </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>o__Bacteroidales</t>
+        </is>
+      </c>
     </row>
     <row r="69">
       <c r="A69" s="1" t="inlineStr">
@@ -1888,6 +2228,11 @@
           <t>o__Bacteroidales</t>
         </is>
       </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>o__Bacteroidales</t>
+        </is>
+      </c>
     </row>
     <row r="70">
       <c r="A70" s="1" t="inlineStr">
@@ -1909,6 +2254,11 @@
           <t>o__Bacteroidales</t>
         </is>
       </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>o__Bacteroidales</t>
+        </is>
+      </c>
     </row>
     <row r="71">
       <c r="A71" s="1" t="inlineStr">
@@ -1930,6 +2280,11 @@
           <t>o__Bacteroidales</t>
         </is>
       </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>o__Bacteroidales</t>
+        </is>
+      </c>
     </row>
     <row r="72">
       <c r="A72" s="1" t="inlineStr">
@@ -1951,6 +2306,11 @@
           <t>o__Bacteroidales</t>
         </is>
       </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>o__Bacteroidales</t>
+        </is>
+      </c>
     </row>
     <row r="73">
       <c r="A73" s="1" t="inlineStr">
@@ -1972,6 +2332,11 @@
           <t>o__Bacteroidales</t>
         </is>
       </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>o__Bacteroidales</t>
+        </is>
+      </c>
     </row>
     <row r="74">
       <c r="A74" s="1" t="inlineStr">
@@ -1993,6 +2358,11 @@
           <t>o__Bacteroidales</t>
         </is>
       </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>o__Bacteroidales</t>
+        </is>
+      </c>
     </row>
     <row r="75">
       <c r="A75" s="1" t="inlineStr">
@@ -2014,6 +2384,11 @@
           <t>o__Bacteroidales</t>
         </is>
       </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>o__Bacteroidales</t>
+        </is>
+      </c>
     </row>
     <row r="76">
       <c r="A76" s="1" t="inlineStr">
@@ -2035,6 +2410,11 @@
           <t>o__Bacteroidales</t>
         </is>
       </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>o__Bacteroidales</t>
+        </is>
+      </c>
     </row>
     <row r="77">
       <c r="A77" s="1" t="inlineStr">
@@ -2056,6 +2436,11 @@
           <t>o__Bacteroidales</t>
         </is>
       </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>o__Bacteroidales</t>
+        </is>
+      </c>
     </row>
     <row r="78">
       <c r="A78" s="1" t="inlineStr">
@@ -2077,6 +2462,11 @@
           <t>o__Bacteroidales</t>
         </is>
       </c>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>o__Bacteroidales</t>
+        </is>
+      </c>
     </row>
     <row r="79">
       <c r="A79" s="1" t="inlineStr">
@@ -2098,6 +2488,11 @@
           <t>o__Bacteroidales</t>
         </is>
       </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>o__Bacteroidales</t>
+        </is>
+      </c>
     </row>
     <row r="80">
       <c r="A80" s="1" t="inlineStr">
@@ -2119,6 +2514,11 @@
           <t>o__Bacteroidales</t>
         </is>
       </c>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>o__Bacteroidales</t>
+        </is>
+      </c>
     </row>
     <row r="81">
       <c r="A81" s="1" t="inlineStr">
@@ -2140,6 +2540,11 @@
           <t>o__Bacteroidales</t>
         </is>
       </c>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>o__Bacteroidales</t>
+        </is>
+      </c>
     </row>
     <row r="82">
       <c r="A82" s="1" t="inlineStr">
@@ -2161,6 +2566,11 @@
           <t>o__Bacteroidales</t>
         </is>
       </c>
+      <c r="F82" t="inlineStr">
+        <is>
+          <t>o__Bacteroidales</t>
+        </is>
+      </c>
     </row>
     <row r="83">
       <c r="A83" s="1" t="inlineStr">
@@ -2182,6 +2592,11 @@
           <t>o__Bacteroidales</t>
         </is>
       </c>
+      <c r="F83" t="inlineStr">
+        <is>
+          <t>o__Bacteroidales</t>
+        </is>
+      </c>
     </row>
     <row r="84">
       <c r="A84" s="1" t="inlineStr">
@@ -2203,6 +2618,11 @@
           <t>o__Bacteroidales</t>
         </is>
       </c>
+      <c r="F84" t="inlineStr">
+        <is>
+          <t>o__Bacteroidales</t>
+        </is>
+      </c>
     </row>
     <row r="85">
       <c r="A85" s="1" t="inlineStr">
@@ -2224,6 +2644,11 @@
           <t>o__Bacteroidales</t>
         </is>
       </c>
+      <c r="F85" t="inlineStr">
+        <is>
+          <t>o__Bacteroidales</t>
+        </is>
+      </c>
     </row>
     <row r="86">
       <c r="A86" s="1" t="inlineStr">
@@ -2245,6 +2670,11 @@
           <t>o__Bacteroidales</t>
         </is>
       </c>
+      <c r="F86" t="inlineStr">
+        <is>
+          <t>o__Bacteroidales</t>
+        </is>
+      </c>
     </row>
     <row r="87">
       <c r="A87" s="1" t="inlineStr">
@@ -2266,6 +2696,11 @@
           <t>o__Bacteroidales</t>
         </is>
       </c>
+      <c r="F87" t="inlineStr">
+        <is>
+          <t>o__Bacteroidales</t>
+        </is>
+      </c>
     </row>
     <row r="88">
       <c r="A88" s="1" t="inlineStr">
@@ -2287,6 +2722,11 @@
           <t>o__Bacteroidales</t>
         </is>
       </c>
+      <c r="F88" t="inlineStr">
+        <is>
+          <t>o__Bacteroidales</t>
+        </is>
+      </c>
     </row>
     <row r="89">
       <c r="A89" s="1" t="inlineStr">
@@ -2308,6 +2748,11 @@
           <t>o__Bacteroidales</t>
         </is>
       </c>
+      <c r="F89" t="inlineStr">
+        <is>
+          <t>o__Bacteroidales</t>
+        </is>
+      </c>
     </row>
     <row r="90">
       <c r="A90" s="1" t="inlineStr">
@@ -2329,6 +2774,11 @@
           <t>o__Bacteroidales</t>
         </is>
       </c>
+      <c r="F90" t="inlineStr">
+        <is>
+          <t>o__Bacteroidales</t>
+        </is>
+      </c>
     </row>
     <row r="91">
       <c r="A91" s="1" t="inlineStr">
@@ -2350,6 +2800,11 @@
           <t>o__Bacteroidales</t>
         </is>
       </c>
+      <c r="F91" t="inlineStr">
+        <is>
+          <t>o__Bacteroidales</t>
+        </is>
+      </c>
     </row>
     <row r="92">
       <c r="A92" s="1" t="inlineStr">
@@ -2371,6 +2826,11 @@
           <t>o__Bacteroidales</t>
         </is>
       </c>
+      <c r="F92" t="inlineStr">
+        <is>
+          <t>o__Bacteroidales</t>
+        </is>
+      </c>
     </row>
     <row r="93">
       <c r="A93" s="1" t="inlineStr">
@@ -2392,6 +2852,11 @@
           <t>o__Bacteroidales</t>
         </is>
       </c>
+      <c r="F93" t="inlineStr">
+        <is>
+          <t>o__Bacteroidales</t>
+        </is>
+      </c>
     </row>
     <row r="94">
       <c r="A94" s="1" t="inlineStr">
@@ -2413,6 +2878,11 @@
           <t>o__Bacteroidales</t>
         </is>
       </c>
+      <c r="F94" t="inlineStr">
+        <is>
+          <t>o__Bacteroidales</t>
+        </is>
+      </c>
     </row>
     <row r="95">
       <c r="A95" s="1" t="inlineStr">
@@ -2434,6 +2904,11 @@
           <t>o__Bacteroidales</t>
         </is>
       </c>
+      <c r="F95" t="inlineStr">
+        <is>
+          <t>o__Bacteroidales</t>
+        </is>
+      </c>
     </row>
     <row r="96">
       <c r="A96" s="1" t="inlineStr">
@@ -2455,6 +2930,11 @@
           <t>o__Bacteroidales</t>
         </is>
       </c>
+      <c r="F96" t="inlineStr">
+        <is>
+          <t>o__Bacteroidales</t>
+        </is>
+      </c>
     </row>
     <row r="97">
       <c r="A97" s="1" t="inlineStr">
@@ -2476,6 +2956,11 @@
           <t>o__Bacteroidales</t>
         </is>
       </c>
+      <c r="F97" t="inlineStr">
+        <is>
+          <t>o__Bacteroidales</t>
+        </is>
+      </c>
     </row>
     <row r="98">
       <c r="A98" s="1" t="inlineStr">
@@ -2497,6 +2982,11 @@
           <t>o__Bacteroidales</t>
         </is>
       </c>
+      <c r="F98" t="inlineStr">
+        <is>
+          <t>o__Bacteroidales</t>
+        </is>
+      </c>
     </row>
     <row r="99">
       <c r="A99" s="1" t="inlineStr">
@@ -2518,6 +3008,11 @@
           <t>o__Bacteroidales</t>
         </is>
       </c>
+      <c r="F99" t="inlineStr">
+        <is>
+          <t>o__Bacteroidales</t>
+        </is>
+      </c>
     </row>
     <row r="100">
       <c r="A100" s="1" t="inlineStr">
@@ -2539,6 +3034,11 @@
           <t>o__Bacteroidales</t>
         </is>
       </c>
+      <c r="F100" t="inlineStr">
+        <is>
+          <t>o__Bacteroidales</t>
+        </is>
+      </c>
     </row>
     <row r="101">
       <c r="A101" s="1" t="inlineStr">
@@ -2560,6 +3060,11 @@
           <t>o__Bacteroidales</t>
         </is>
       </c>
+      <c r="F101" t="inlineStr">
+        <is>
+          <t>o__Bacteroidales</t>
+        </is>
+      </c>
     </row>
     <row r="102">
       <c r="A102" s="1" t="inlineStr">
@@ -2581,6 +3086,11 @@
           <t>o__Bacteroidales</t>
         </is>
       </c>
+      <c r="F102" t="inlineStr">
+        <is>
+          <t>o__Bacteroidales</t>
+        </is>
+      </c>
     </row>
     <row r="103">
       <c r="A103" s="1" t="inlineStr">
@@ -2602,6 +3112,11 @@
           <t>o__Bacteroidales</t>
         </is>
       </c>
+      <c r="F103" t="inlineStr">
+        <is>
+          <t>o__Bacteroidales</t>
+        </is>
+      </c>
     </row>
     <row r="104">
       <c r="A104" s="1" t="inlineStr">
@@ -2623,6 +3138,11 @@
           <t>o__Bacteroidales</t>
         </is>
       </c>
+      <c r="F104" t="inlineStr">
+        <is>
+          <t>o__Bacteroidales</t>
+        </is>
+      </c>
     </row>
     <row r="105">
       <c r="A105" s="1" t="inlineStr">
@@ -2644,6 +3164,11 @@
           <t>o__Bacteroidales</t>
         </is>
       </c>
+      <c r="F105" t="inlineStr">
+        <is>
+          <t>o__Bacteroidales</t>
+        </is>
+      </c>
     </row>
     <row r="106">
       <c r="A106" s="1" t="inlineStr">
@@ -2665,6 +3190,11 @@
           <t>o__Bacteroidales</t>
         </is>
       </c>
+      <c r="F106" t="inlineStr">
+        <is>
+          <t>o__Bacteroidales</t>
+        </is>
+      </c>
     </row>
     <row r="107">
       <c r="A107" s="1" t="inlineStr">
@@ -2686,6 +3216,11 @@
           <t>o__Bacteroidales</t>
         </is>
       </c>
+      <c r="F107" t="inlineStr">
+        <is>
+          <t>o__Bacteroidales</t>
+        </is>
+      </c>
     </row>
     <row r="108">
       <c r="A108" s="1" t="inlineStr">
@@ -2707,6 +3242,11 @@
           <t>o__Bacteroidales</t>
         </is>
       </c>
+      <c r="F108" t="inlineStr">
+        <is>
+          <t>o__Bacteroidales</t>
+        </is>
+      </c>
     </row>
     <row r="109">
       <c r="A109" s="1" t="inlineStr">
@@ -2728,6 +3268,11 @@
           <t>o__Bacteroidales</t>
         </is>
       </c>
+      <c r="F109" t="inlineStr">
+        <is>
+          <t>o__Bacteroidales</t>
+        </is>
+      </c>
     </row>
     <row r="110">
       <c r="A110" s="1" t="inlineStr">
@@ -2749,6 +3294,11 @@
           <t>o__Bacteroidales</t>
         </is>
       </c>
+      <c r="F110" t="inlineStr">
+        <is>
+          <t>o__Bacteroidales</t>
+        </is>
+      </c>
     </row>
     <row r="111">
       <c r="A111" s="1" t="inlineStr">
@@ -2770,6 +3320,11 @@
           <t>o__Bacteroidales</t>
         </is>
       </c>
+      <c r="F111" t="inlineStr">
+        <is>
+          <t>o__Bacteroidales</t>
+        </is>
+      </c>
     </row>
     <row r="112">
       <c r="A112" s="1" t="inlineStr">
@@ -2791,6 +3346,11 @@
           <t>o__Bacteroidales</t>
         </is>
       </c>
+      <c r="F112" t="inlineStr">
+        <is>
+          <t>o__Bacteroidales</t>
+        </is>
+      </c>
     </row>
     <row r="113">
       <c r="A113" s="1" t="inlineStr">
@@ -2812,6 +3372,11 @@
           <t>o__Bacteroidales</t>
         </is>
       </c>
+      <c r="F113" t="inlineStr">
+        <is>
+          <t>o__Bacteroidales</t>
+        </is>
+      </c>
     </row>
     <row r="114">
       <c r="A114" s="1" t="inlineStr">
@@ -2833,6 +3398,11 @@
           <t>o__Bacteroidales</t>
         </is>
       </c>
+      <c r="F114" t="inlineStr">
+        <is>
+          <t>o__Bacteroidales</t>
+        </is>
+      </c>
     </row>
     <row r="115">
       <c r="A115" s="1" t="inlineStr">
@@ -2854,6 +3424,11 @@
           <t>o__Bacteroidales</t>
         </is>
       </c>
+      <c r="F115" t="inlineStr">
+        <is>
+          <t>o__Bacteroidales</t>
+        </is>
+      </c>
     </row>
     <row r="116">
       <c r="A116" s="1" t="inlineStr">
@@ -2875,6 +3450,11 @@
           <t>o__Bacteroidales</t>
         </is>
       </c>
+      <c r="F116" t="inlineStr">
+        <is>
+          <t>o__Bacteroidales</t>
+        </is>
+      </c>
     </row>
     <row r="117">
       <c r="A117" s="1" t="inlineStr">
@@ -2896,6 +3476,11 @@
           <t>o__Bacteroidales</t>
         </is>
       </c>
+      <c r="F117" t="inlineStr">
+        <is>
+          <t>o__Bacteroidales</t>
+        </is>
+      </c>
     </row>
     <row r="118">
       <c r="A118" s="1" t="inlineStr">
@@ -2917,6 +3502,11 @@
           <t>o__Bacteroidales</t>
         </is>
       </c>
+      <c r="F118" t="inlineStr">
+        <is>
+          <t>o__Bacteroidales</t>
+        </is>
+      </c>
     </row>
     <row r="119">
       <c r="A119" s="1" t="inlineStr">
@@ -2938,6 +3528,11 @@
           <t>o__Bacteroidales</t>
         </is>
       </c>
+      <c r="F119" t="inlineStr">
+        <is>
+          <t>o__Bacteroidales</t>
+        </is>
+      </c>
     </row>
     <row r="120">
       <c r="A120" s="1" t="inlineStr">
@@ -2959,6 +3554,11 @@
           <t>o__Bacteroidales</t>
         </is>
       </c>
+      <c r="F120" t="inlineStr">
+        <is>
+          <t>o__Bacteroidales</t>
+        </is>
+      </c>
     </row>
     <row r="121">
       <c r="A121" s="1" t="inlineStr">
@@ -2980,6 +3580,11 @@
           <t>o__Bacteroidales</t>
         </is>
       </c>
+      <c r="F121" t="inlineStr">
+        <is>
+          <t>o__Bacteroidales</t>
+        </is>
+      </c>
     </row>
     <row r="122">
       <c r="A122" s="1" t="inlineStr">
@@ -3001,6 +3606,11 @@
           <t>o__Bacteroidales</t>
         </is>
       </c>
+      <c r="F122" t="inlineStr">
+        <is>
+          <t>o__Bacteroidales</t>
+        </is>
+      </c>
     </row>
     <row r="123">
       <c r="A123" s="1" t="inlineStr">
@@ -3022,6 +3632,11 @@
           <t>o__Bacteroidales</t>
         </is>
       </c>
+      <c r="F123" t="inlineStr">
+        <is>
+          <t>o__Bacteroidales</t>
+        </is>
+      </c>
     </row>
     <row r="124">
       <c r="A124" s="1" t="inlineStr">
@@ -3043,6 +3658,11 @@
           <t>o__Bacteroidales</t>
         </is>
       </c>
+      <c r="F124" t="inlineStr">
+        <is>
+          <t>o__Bacteroidales</t>
+        </is>
+      </c>
     </row>
     <row r="125">
       <c r="A125" s="1" t="inlineStr">
@@ -3064,6 +3684,11 @@
           <t>o__Bacteroidales</t>
         </is>
       </c>
+      <c r="F125" t="inlineStr">
+        <is>
+          <t>o__Bacteroidales</t>
+        </is>
+      </c>
     </row>
     <row r="126">
       <c r="A126" s="1" t="inlineStr">
@@ -3085,6 +3710,11 @@
           <t>o__Bacteroidales</t>
         </is>
       </c>
+      <c r="F126" t="inlineStr">
+        <is>
+          <t>o__Bacteroidales</t>
+        </is>
+      </c>
     </row>
     <row r="127">
       <c r="A127" s="1" t="inlineStr">
@@ -3106,6 +3736,11 @@
           <t>o__Bacteroidales</t>
         </is>
       </c>
+      <c r="F127" t="inlineStr">
+        <is>
+          <t>o__Bacteroidales</t>
+        </is>
+      </c>
     </row>
     <row r="128">
       <c r="A128" s="1" t="inlineStr">
@@ -3127,6 +3762,11 @@
           <t>o__Bacteroidales</t>
         </is>
       </c>
+      <c r="F128" t="inlineStr">
+        <is>
+          <t>o__Bacteroidales</t>
+        </is>
+      </c>
     </row>
     <row r="129">
       <c r="A129" s="1" t="inlineStr">
@@ -3148,6 +3788,11 @@
           <t>o__Bacteroidales</t>
         </is>
       </c>
+      <c r="F129" t="inlineStr">
+        <is>
+          <t>o__Bacteroidales</t>
+        </is>
+      </c>
     </row>
     <row r="130">
       <c r="A130" s="1" t="inlineStr">
@@ -3169,6 +3814,11 @@
           <t>o__Bacteroidales</t>
         </is>
       </c>
+      <c r="F130" t="inlineStr">
+        <is>
+          <t>o__Bacteroidales</t>
+        </is>
+      </c>
     </row>
     <row r="131">
       <c r="A131" s="1" t="inlineStr">
@@ -3190,6 +3840,11 @@
           <t>o__Bacteroidales</t>
         </is>
       </c>
+      <c r="F131" t="inlineStr">
+        <is>
+          <t>o__Bacteroidales</t>
+        </is>
+      </c>
     </row>
     <row r="132">
       <c r="A132" s="1" t="inlineStr">
@@ -3211,6 +3866,11 @@
           <t>o__Bacteroidales</t>
         </is>
       </c>
+      <c r="F132" t="inlineStr">
+        <is>
+          <t>o__Bacteroidales</t>
+        </is>
+      </c>
     </row>
     <row r="133">
       <c r="A133" s="1" t="inlineStr">
@@ -3232,6 +3892,11 @@
           <t>o__Bacteroidales</t>
         </is>
       </c>
+      <c r="F133" t="inlineStr">
+        <is>
+          <t>o__Bacteroidales</t>
+        </is>
+      </c>
     </row>
     <row r="134">
       <c r="A134" s="1" t="inlineStr">
@@ -3253,6 +3918,11 @@
           <t>o__Bacteroidales</t>
         </is>
       </c>
+      <c r="F134" t="inlineStr">
+        <is>
+          <t>o__Bacteroidales</t>
+        </is>
+      </c>
     </row>
     <row r="135">
       <c r="A135" s="1" t="inlineStr">
@@ -3274,6 +3944,11 @@
           <t>o__Bacteroidales</t>
         </is>
       </c>
+      <c r="F135" t="inlineStr">
+        <is>
+          <t>o__Bacteroidales</t>
+        </is>
+      </c>
     </row>
     <row r="136">
       <c r="A136" s="1" t="inlineStr">
@@ -3295,6 +3970,11 @@
           <t>o__Bacteroidales</t>
         </is>
       </c>
+      <c r="F136" t="inlineStr">
+        <is>
+          <t>o__Bacteroidales</t>
+        </is>
+      </c>
     </row>
     <row r="137">
       <c r="A137" s="1" t="inlineStr">
@@ -3316,6 +3996,11 @@
           <t>o__Bacteroidales</t>
         </is>
       </c>
+      <c r="F137" t="inlineStr">
+        <is>
+          <t>o__Bacteroidales</t>
+        </is>
+      </c>
     </row>
     <row r="138">
       <c r="A138" s="1" t="inlineStr">
@@ -3337,6 +4022,11 @@
           <t>o__Bacteroidales</t>
         </is>
       </c>
+      <c r="F138" t="inlineStr">
+        <is>
+          <t>o__Bacteroidales</t>
+        </is>
+      </c>
     </row>
     <row r="139">
       <c r="A139" s="1" t="inlineStr">
@@ -3358,6 +4048,11 @@
           <t>o__Bacteroidales</t>
         </is>
       </c>
+      <c r="F139" t="inlineStr">
+        <is>
+          <t>o__Bacteroidales</t>
+        </is>
+      </c>
     </row>
     <row r="140">
       <c r="A140" s="1" t="inlineStr">
@@ -3379,6 +4074,11 @@
           <t>o__Bacteroidales</t>
         </is>
       </c>
+      <c r="F140" t="inlineStr">
+        <is>
+          <t>o__Bacteroidales</t>
+        </is>
+      </c>
     </row>
     <row r="141">
       <c r="A141" s="1" t="inlineStr">
@@ -3400,6 +4100,11 @@
           <t>o__Bacteroidales</t>
         </is>
       </c>
+      <c r="F141" t="inlineStr">
+        <is>
+          <t>o__Bacteroidales</t>
+        </is>
+      </c>
     </row>
     <row r="142">
       <c r="A142" s="1" t="inlineStr">
@@ -3421,6 +4126,11 @@
           <t>o__Bacteroidales</t>
         </is>
       </c>
+      <c r="F142" t="inlineStr">
+        <is>
+          <t>o__Bacteroidales</t>
+        </is>
+      </c>
     </row>
     <row r="143">
       <c r="A143" s="1" t="inlineStr">
@@ -3442,6 +4152,11 @@
           <t>o__Bacteroidales</t>
         </is>
       </c>
+      <c r="F143" t="inlineStr">
+        <is>
+          <t>o__Bacteroidales</t>
+        </is>
+      </c>
     </row>
     <row r="144">
       <c r="A144" s="1" t="inlineStr">
@@ -3463,6 +4178,11 @@
           <t>o__Bacteroidales</t>
         </is>
       </c>
+      <c r="F144" t="inlineStr">
+        <is>
+          <t>o__Bacteroidales</t>
+        </is>
+      </c>
     </row>
     <row r="145">
       <c r="A145" s="1" t="inlineStr">
@@ -3484,6 +4204,11 @@
           <t>o__Bacteroidales</t>
         </is>
       </c>
+      <c r="F145" t="inlineStr">
+        <is>
+          <t>o__Bacteroidales</t>
+        </is>
+      </c>
     </row>
     <row r="146">
       <c r="A146" s="1" t="inlineStr">
@@ -3505,6 +4230,11 @@
           <t>o__Bacteroidales</t>
         </is>
       </c>
+      <c r="F146" t="inlineStr">
+        <is>
+          <t>o__Bacteroidales</t>
+        </is>
+      </c>
     </row>
     <row r="147">
       <c r="A147" s="1" t="inlineStr">
@@ -3526,6 +4256,11 @@
           <t>o__Bacteroidales</t>
         </is>
       </c>
+      <c r="F147" t="inlineStr">
+        <is>
+          <t>o__Bacteroidales</t>
+        </is>
+      </c>
     </row>
     <row r="148">
       <c r="A148" s="1" t="inlineStr">
@@ -3547,6 +4282,11 @@
           <t>o__Bacteroidales</t>
         </is>
       </c>
+      <c r="F148" t="inlineStr">
+        <is>
+          <t>o__Bacteroidales</t>
+        </is>
+      </c>
     </row>
     <row r="149">
       <c r="A149" s="1" t="inlineStr">
@@ -3568,6 +4308,11 @@
           <t>o__Bacteroidales</t>
         </is>
       </c>
+      <c r="F149" t="inlineStr">
+        <is>
+          <t>o__Bacteroidales</t>
+        </is>
+      </c>
     </row>
     <row r="150">
       <c r="A150" s="1" t="inlineStr">
@@ -3589,6 +4334,11 @@
           <t>o__Bacteroidales</t>
         </is>
       </c>
+      <c r="F150" t="inlineStr">
+        <is>
+          <t>o__Bacteroidales</t>
+        </is>
+      </c>
     </row>
     <row r="151">
       <c r="A151" s="1" t="inlineStr">
@@ -3610,6 +4360,11 @@
           <t>o__Bacteroidales</t>
         </is>
       </c>
+      <c r="F151" t="inlineStr">
+        <is>
+          <t>o__Bacteroidales</t>
+        </is>
+      </c>
     </row>
     <row r="152">
       <c r="A152" s="1" t="inlineStr">
@@ -3631,6 +4386,11 @@
           <t>o__Bacteroidales</t>
         </is>
       </c>
+      <c r="F152" t="inlineStr">
+        <is>
+          <t>o__Bacteroidales</t>
+        </is>
+      </c>
     </row>
     <row r="153">
       <c r="A153" s="1" t="inlineStr">
@@ -3652,6 +4412,11 @@
           <t>o__Bacteroidales</t>
         </is>
       </c>
+      <c r="F153" t="inlineStr">
+        <is>
+          <t>o__Bacteroidales</t>
+        </is>
+      </c>
     </row>
     <row r="154">
       <c r="A154" s="1" t="inlineStr">
@@ -3673,6 +4438,11 @@
           <t>o__Bacteroidales</t>
         </is>
       </c>
+      <c r="F154" t="inlineStr">
+        <is>
+          <t>o__Bacteroidales</t>
+        </is>
+      </c>
     </row>
     <row r="155">
       <c r="A155" s="1" t="inlineStr">
@@ -3694,6 +4464,11 @@
           <t>o__Bacteroidales</t>
         </is>
       </c>
+      <c r="F155" t="inlineStr">
+        <is>
+          <t>o__Bacteroidales</t>
+        </is>
+      </c>
     </row>
     <row r="156">
       <c r="A156" s="1" t="inlineStr">
@@ -3715,6 +4490,11 @@
           <t>o__Bacteroidales</t>
         </is>
       </c>
+      <c r="F156" t="inlineStr">
+        <is>
+          <t>o__Bacteroidales</t>
+        </is>
+      </c>
     </row>
     <row r="157">
       <c r="A157" s="1" t="inlineStr">
@@ -3736,6 +4516,11 @@
           <t>o__Bacteroidales</t>
         </is>
       </c>
+      <c r="F157" t="inlineStr">
+        <is>
+          <t>o__Bacteroidales</t>
+        </is>
+      </c>
     </row>
     <row r="158">
       <c r="A158" s="1" t="inlineStr">
@@ -3757,6 +4542,11 @@
           <t>o__Bacteroidales</t>
         </is>
       </c>
+      <c r="F158" t="inlineStr">
+        <is>
+          <t>o__Bacteroidales</t>
+        </is>
+      </c>
     </row>
     <row r="159">
       <c r="A159" s="1" t="inlineStr">
@@ -3778,6 +4568,11 @@
           <t>o__Bacteroidales</t>
         </is>
       </c>
+      <c r="F159" t="inlineStr">
+        <is>
+          <t>o__Bacteroidales</t>
+        </is>
+      </c>
     </row>
     <row r="160">
       <c r="A160" s="1" t="inlineStr">
@@ -3799,6 +4594,11 @@
           <t>o__Bacteroidales</t>
         </is>
       </c>
+      <c r="F160" t="inlineStr">
+        <is>
+          <t>o__Bacteroidales</t>
+        </is>
+      </c>
     </row>
     <row r="161">
       <c r="A161" s="1" t="inlineStr">
@@ -3820,6 +4620,11 @@
           <t>o__Bacteroidales</t>
         </is>
       </c>
+      <c r="F161" t="inlineStr">
+        <is>
+          <t>o__Bacteroidales</t>
+        </is>
+      </c>
     </row>
     <row r="162">
       <c r="A162" s="1" t="inlineStr">
@@ -3841,6 +4646,11 @@
           <t>o__Bacteroidales</t>
         </is>
       </c>
+      <c r="F162" t="inlineStr">
+        <is>
+          <t>o__Bacteroidales</t>
+        </is>
+      </c>
     </row>
     <row r="163">
       <c r="A163" s="1" t="inlineStr">
@@ -3862,6 +4672,11 @@
           <t>o__Bacteroidales</t>
         </is>
       </c>
+      <c r="F163" t="inlineStr">
+        <is>
+          <t>o__Bacteroidales</t>
+        </is>
+      </c>
     </row>
     <row r="164">
       <c r="A164" s="1" t="inlineStr">
@@ -3883,6 +4698,11 @@
           <t>o__Bacteroidales</t>
         </is>
       </c>
+      <c r="F164" t="inlineStr">
+        <is>
+          <t>o__Bacteroidales</t>
+        </is>
+      </c>
     </row>
     <row r="165">
       <c r="A165" s="1" t="inlineStr">
@@ -3904,6 +4724,11 @@
           <t>o__Bacteroidales</t>
         </is>
       </c>
+      <c r="F165" t="inlineStr">
+        <is>
+          <t>o__Bacteroidales</t>
+        </is>
+      </c>
     </row>
     <row r="166">
       <c r="A166" s="1" t="inlineStr">
@@ -3925,6 +4750,11 @@
           <t>o__Bacteroidales</t>
         </is>
       </c>
+      <c r="F166" t="inlineStr">
+        <is>
+          <t>o__Bacteroidales</t>
+        </is>
+      </c>
     </row>
     <row r="167">
       <c r="A167" s="1" t="inlineStr">
@@ -3946,6 +4776,11 @@
           <t>o__Bacteroidales</t>
         </is>
       </c>
+      <c r="F167" t="inlineStr">
+        <is>
+          <t>o__Bacteroidales</t>
+        </is>
+      </c>
     </row>
     <row r="168">
       <c r="A168" s="1" t="inlineStr">
@@ -3967,6 +4802,11 @@
           <t>o__Bacteroidales</t>
         </is>
       </c>
+      <c r="F168" t="inlineStr">
+        <is>
+          <t>o__Bacteroidales</t>
+        </is>
+      </c>
     </row>
     <row r="169">
       <c r="A169" s="1" t="inlineStr">
@@ -3988,6 +4828,11 @@
           <t>o__Bacteroidales</t>
         </is>
       </c>
+      <c r="F169" t="inlineStr">
+        <is>
+          <t>o__Bacteroidales</t>
+        </is>
+      </c>
     </row>
     <row r="170">
       <c r="A170" s="1" t="inlineStr">
@@ -4009,6 +4854,11 @@
           <t>o__Bacteroidales</t>
         </is>
       </c>
+      <c r="F170" t="inlineStr">
+        <is>
+          <t>o__Bacteroidales</t>
+        </is>
+      </c>
     </row>
     <row r="171">
       <c r="A171" s="1" t="inlineStr">
@@ -4030,6 +4880,11 @@
           <t>o__Bacteroidales</t>
         </is>
       </c>
+      <c r="F171" t="inlineStr">
+        <is>
+          <t>o__Bacteroidales</t>
+        </is>
+      </c>
     </row>
     <row r="172">
       <c r="A172" s="1" t="inlineStr">
@@ -4051,6 +4906,11 @@
           <t>o__Bacteroidales</t>
         </is>
       </c>
+      <c r="F172" t="inlineStr">
+        <is>
+          <t>o__Bacteroidales</t>
+        </is>
+      </c>
     </row>
     <row r="173">
       <c r="A173" s="1" t="inlineStr">
@@ -4072,6 +4932,11 @@
           <t>o__Bacteroidales</t>
         </is>
       </c>
+      <c r="F173" t="inlineStr">
+        <is>
+          <t>o__Bacteroidales</t>
+        </is>
+      </c>
     </row>
     <row r="174">
       <c r="A174" s="1" t="inlineStr">
@@ -4093,6 +4958,11 @@
           <t>o__Bacteroidales</t>
         </is>
       </c>
+      <c r="F174" t="inlineStr">
+        <is>
+          <t>o__Bacteroidales</t>
+        </is>
+      </c>
     </row>
     <row r="175">
       <c r="A175" s="1" t="inlineStr">
@@ -4114,6 +4984,11 @@
           <t>o__Bacteroidales</t>
         </is>
       </c>
+      <c r="F175" t="inlineStr">
+        <is>
+          <t>o__Bacteroidales</t>
+        </is>
+      </c>
     </row>
     <row r="176">
       <c r="A176" s="1" t="inlineStr">
@@ -4135,6 +5010,11 @@
           <t>o__Bacteroidales</t>
         </is>
       </c>
+      <c r="F176" t="inlineStr">
+        <is>
+          <t>o__Bacteroidales</t>
+        </is>
+      </c>
     </row>
     <row r="177">
       <c r="A177" s="1" t="inlineStr">
@@ -4156,6 +5036,11 @@
           <t>o__Bacteroidales</t>
         </is>
       </c>
+      <c r="F177" t="inlineStr">
+        <is>
+          <t>o__Bacteroidales</t>
+        </is>
+      </c>
     </row>
     <row r="178">
       <c r="A178" s="1" t="inlineStr">
@@ -4177,6 +5062,11 @@
           <t>o__Bacteroidales</t>
         </is>
       </c>
+      <c r="F178" t="inlineStr">
+        <is>
+          <t>o__Bacteroidales</t>
+        </is>
+      </c>
     </row>
     <row r="179">
       <c r="A179" s="1" t="inlineStr">
@@ -4198,6 +5088,11 @@
           <t>o__Bacteroidales</t>
         </is>
       </c>
+      <c r="F179" t="inlineStr">
+        <is>
+          <t>o__Bacteroidales</t>
+        </is>
+      </c>
     </row>
     <row r="180">
       <c r="A180" s="1" t="inlineStr">
@@ -4219,6 +5114,11 @@
           <t>o__Bacteroidales</t>
         </is>
       </c>
+      <c r="F180" t="inlineStr">
+        <is>
+          <t>o__Bacteroidales</t>
+        </is>
+      </c>
     </row>
     <row r="181">
       <c r="A181" s="1" t="inlineStr">
@@ -4240,6 +5140,11 @@
           <t>o__Bacteroidales</t>
         </is>
       </c>
+      <c r="F181" t="inlineStr">
+        <is>
+          <t>o__Bacteroidales</t>
+        </is>
+      </c>
     </row>
     <row r="182">
       <c r="A182" s="1" t="inlineStr">
@@ -4261,6 +5166,11 @@
           <t>o__Bacteroidales</t>
         </is>
       </c>
+      <c r="F182" t="inlineStr">
+        <is>
+          <t>o__Bacteroidales</t>
+        </is>
+      </c>
     </row>
     <row r="183">
       <c r="A183" s="1" t="inlineStr">
@@ -4282,6 +5192,11 @@
           <t>o__Bacteroidales</t>
         </is>
       </c>
+      <c r="F183" t="inlineStr">
+        <is>
+          <t>o__Bacteroidales</t>
+        </is>
+      </c>
     </row>
     <row r="184">
       <c r="A184" s="1" t="inlineStr">
@@ -4303,6 +5218,11 @@
           <t>o__Bacteroidales</t>
         </is>
       </c>
+      <c r="F184" t="inlineStr">
+        <is>
+          <t>o__Bacteroidales</t>
+        </is>
+      </c>
     </row>
     <row r="185">
       <c r="A185" s="1" t="inlineStr">
@@ -4324,6 +5244,11 @@
           <t>o__Bacteroidales</t>
         </is>
       </c>
+      <c r="F185" t="inlineStr">
+        <is>
+          <t>o__Bacteroidales</t>
+        </is>
+      </c>
     </row>
     <row r="186">
       <c r="A186" s="1" t="inlineStr">
@@ -4345,6 +5270,11 @@
           <t>o__Bacteroidales</t>
         </is>
       </c>
+      <c r="F186" t="inlineStr">
+        <is>
+          <t>o__Bacteroidales</t>
+        </is>
+      </c>
     </row>
     <row r="187">
       <c r="A187" s="1" t="inlineStr">
@@ -4366,6 +5296,11 @@
           <t>o__Bacteroidales</t>
         </is>
       </c>
+      <c r="F187" t="inlineStr">
+        <is>
+          <t>o__Bacteroidales</t>
+        </is>
+      </c>
     </row>
     <row r="188">
       <c r="A188" s="1" t="inlineStr">
@@ -4387,6 +5322,11 @@
           <t>o__Bacteroidales</t>
         </is>
       </c>
+      <c r="F188" t="inlineStr">
+        <is>
+          <t>o__Bacteroidales</t>
+        </is>
+      </c>
     </row>
     <row r="189">
       <c r="A189" s="1" t="inlineStr">
@@ -4408,6 +5348,11 @@
           <t>o__Bacteroidales</t>
         </is>
       </c>
+      <c r="F189" t="inlineStr">
+        <is>
+          <t>o__Bacteroidales</t>
+        </is>
+      </c>
     </row>
     <row r="190">
       <c r="A190" s="1" t="inlineStr">
@@ -4429,6 +5374,11 @@
           <t>o__Bacteroidales</t>
         </is>
       </c>
+      <c r="F190" t="inlineStr">
+        <is>
+          <t>o__Bacteroidales</t>
+        </is>
+      </c>
     </row>
     <row r="191">
       <c r="A191" s="1" t="inlineStr">
@@ -4450,6 +5400,11 @@
           <t>o__Bacteroidales</t>
         </is>
       </c>
+      <c r="F191" t="inlineStr">
+        <is>
+          <t>o__Bacteroidales</t>
+        </is>
+      </c>
     </row>
     <row r="192">
       <c r="A192" s="1" t="inlineStr">
@@ -4471,6 +5426,11 @@
           <t>o__Bacteroidales</t>
         </is>
       </c>
+      <c r="F192" t="inlineStr">
+        <is>
+          <t>o__Bacteroidales</t>
+        </is>
+      </c>
     </row>
     <row r="193">
       <c r="A193" s="1" t="inlineStr">
@@ -4492,6 +5452,11 @@
           <t>o__Bacteroidales</t>
         </is>
       </c>
+      <c r="F193" t="inlineStr">
+        <is>
+          <t>o__Bacteroidales</t>
+        </is>
+      </c>
     </row>
     <row r="194">
       <c r="A194" s="1" t="inlineStr">
@@ -4513,6 +5478,11 @@
           <t>o__Bacteroidales</t>
         </is>
       </c>
+      <c r="F194" t="inlineStr">
+        <is>
+          <t>o__Bacteroidales</t>
+        </is>
+      </c>
     </row>
     <row r="195">
       <c r="A195" s="1" t="inlineStr">
@@ -4534,6 +5504,11 @@
           <t>o__Bacteroidales</t>
         </is>
       </c>
+      <c r="F195" t="inlineStr">
+        <is>
+          <t>o__Bacteroidales</t>
+        </is>
+      </c>
     </row>
     <row r="196">
       <c r="A196" s="1" t="inlineStr">
@@ -4555,6 +5530,11 @@
           <t>o__Bacteroidales</t>
         </is>
       </c>
+      <c r="F196" t="inlineStr">
+        <is>
+          <t>o__Bacteroidales</t>
+        </is>
+      </c>
     </row>
     <row r="197">
       <c r="A197" s="1" t="inlineStr">
@@ -4576,6 +5556,11 @@
           <t>o__Bacteroidales</t>
         </is>
       </c>
+      <c r="F197" t="inlineStr">
+        <is>
+          <t>o__Bacteroidales</t>
+        </is>
+      </c>
     </row>
     <row r="198">
       <c r="A198" s="1" t="inlineStr">
@@ -4597,6 +5582,11 @@
           <t>o__Bacteroidales</t>
         </is>
       </c>
+      <c r="F198" t="inlineStr">
+        <is>
+          <t>o__Bacteroidales</t>
+        </is>
+      </c>
     </row>
     <row r="199">
       <c r="A199" s="1" t="inlineStr">
@@ -4618,6 +5608,11 @@
           <t>o__Bacteroidales</t>
         </is>
       </c>
+      <c r="F199" t="inlineStr">
+        <is>
+          <t>o__Bacteroidales</t>
+        </is>
+      </c>
     </row>
     <row r="200">
       <c r="A200" s="1" t="inlineStr">
@@ -4639,6 +5634,11 @@
           <t>o__Bacteroidales</t>
         </is>
       </c>
+      <c r="F200" t="inlineStr">
+        <is>
+          <t>o__Bacteroidales</t>
+        </is>
+      </c>
     </row>
     <row r="201">
       <c r="A201" s="1" t="inlineStr">
@@ -4660,6 +5660,11 @@
           <t>o__Bacteroidales</t>
         </is>
       </c>
+      <c r="F201" t="inlineStr">
+        <is>
+          <t>o__Bacteroidales</t>
+        </is>
+      </c>
     </row>
     <row r="202">
       <c r="A202" s="1" t="inlineStr">
@@ -4681,6 +5686,11 @@
           <t>o__Bacteroidales</t>
         </is>
       </c>
+      <c r="F202" t="inlineStr">
+        <is>
+          <t>o__Bacteroidales</t>
+        </is>
+      </c>
     </row>
     <row r="203">
       <c r="A203" s="1" t="inlineStr">
@@ -4702,6 +5712,11 @@
           <t>o__Bacteroidales</t>
         </is>
       </c>
+      <c r="F203" t="inlineStr">
+        <is>
+          <t>o__Bacteroidales</t>
+        </is>
+      </c>
     </row>
     <row r="204">
       <c r="A204" s="1" t="inlineStr">
@@ -4723,6 +5738,11 @@
           <t>o__Bacteroidales</t>
         </is>
       </c>
+      <c r="F204" t="inlineStr">
+        <is>
+          <t>o__Bacteroidales</t>
+        </is>
+      </c>
     </row>
     <row r="205">
       <c r="A205" s="1" t="inlineStr">
@@ -4740,6 +5760,11 @@
         <v>0.9999970003671156</v>
       </c>
       <c r="E205" t="inlineStr">
+        <is>
+          <t>o__Bacteroidales</t>
+        </is>
+      </c>
+      <c r="F205" t="inlineStr">
         <is>
           <t>o__Bacteroidales</t>
         </is>

--- a/outputs-HGR-r202/c__Bacteroidia.xlsx
+++ b/outputs-HGR-r202/c__Bacteroidia.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E212"/>
+  <dimension ref="A1:F212"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -460,6 +460,11 @@
           <t>prediction</t>
         </is>
       </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>rejection-f</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
@@ -468,15 +473,20 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.9999943079555852</v>
+        <v>0.9999999255643602</v>
       </c>
       <c r="C2" t="n">
-        <v>5.692044414853718e-06</v>
+        <v>7.443563977184332e-08</v>
       </c>
       <c r="D2" t="n">
-        <v>0.9999943079555852</v>
+        <v>0.9999999255643602</v>
       </c>
       <c r="E2" t="inlineStr">
+        <is>
+          <t>o__Bacteroidales</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
         <is>
           <t>o__Bacteroidales</t>
         </is>
@@ -489,15 +499,20 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.9999997220479481</v>
+        <v>0.9999999599982596</v>
       </c>
       <c r="C3" t="n">
-        <v>2.779520519129216e-07</v>
+        <v>4.000174038688408e-08</v>
       </c>
       <c r="D3" t="n">
-        <v>0.9999997220479481</v>
+        <v>0.9999999599982596</v>
       </c>
       <c r="E3" t="inlineStr">
+        <is>
+          <t>o__Bacteroidales</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
         <is>
           <t>o__Bacteroidales</t>
         </is>
@@ -510,15 +525,20 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.9999999266578162</v>
+        <v>0.9999997896958824</v>
       </c>
       <c r="C4" t="n">
-        <v>7.334218373444392e-08</v>
+        <v>2.103041175643289e-07</v>
       </c>
       <c r="D4" t="n">
-        <v>0.9999999266578162</v>
+        <v>0.9999997896958824</v>
       </c>
       <c r="E4" t="inlineStr">
+        <is>
+          <t>o__Bacteroidales</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
         <is>
           <t>o__Bacteroidales</t>
         </is>
@@ -531,15 +551,20 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.9999855741070519</v>
+        <v>0.9999998643965311</v>
       </c>
       <c r="C5" t="n">
-        <v>1.442589294811444e-05</v>
+        <v>1.356034688919048e-07</v>
       </c>
       <c r="D5" t="n">
-        <v>0.9999855741070519</v>
+        <v>0.9999998643965311</v>
       </c>
       <c r="E5" t="inlineStr">
+        <is>
+          <t>o__Bacteroidales</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
         <is>
           <t>o__Bacteroidales</t>
         </is>
@@ -552,15 +577,20 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.9999981524116515</v>
+        <v>0.9999999788144469</v>
       </c>
       <c r="C6" t="n">
-        <v>1.847588348561657e-06</v>
+        <v>2.118555304168591e-08</v>
       </c>
       <c r="D6" t="n">
-        <v>0.9999981524116515</v>
+        <v>0.9999999788144469</v>
       </c>
       <c r="E6" t="inlineStr">
+        <is>
+          <t>o__Bacteroidales</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
         <is>
           <t>o__Bacteroidales</t>
         </is>
@@ -573,15 +603,20 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.9999996778113032</v>
+        <v>0.9999999462599981</v>
       </c>
       <c r="C7" t="n">
-        <v>3.22188696885384e-07</v>
+        <v>5.374000191707567e-08</v>
       </c>
       <c r="D7" t="n">
-        <v>0.9999996778113032</v>
+        <v>0.9999999462599981</v>
       </c>
       <c r="E7" t="inlineStr">
+        <is>
+          <t>o__Bacteroidales</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
         <is>
           <t>o__Bacteroidales</t>
         </is>
@@ -594,15 +629,20 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.9999986845529991</v>
+        <v>0.999999895884505</v>
       </c>
       <c r="C8" t="n">
-        <v>1.315447000844253e-06</v>
+        <v>1.041154949530893e-07</v>
       </c>
       <c r="D8" t="n">
-        <v>0.9999986845529991</v>
+        <v>0.999999895884505</v>
       </c>
       <c r="E8" t="inlineStr">
+        <is>
+          <t>o__Bacteroidales</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
         <is>
           <t>o__Bacteroidales</t>
         </is>
@@ -615,15 +655,20 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.9999997661043111</v>
+        <v>0.9999866270966542</v>
       </c>
       <c r="C9" t="n">
-        <v>2.338956889362203e-07</v>
+        <v>1.337290334581819e-05</v>
       </c>
       <c r="D9" t="n">
-        <v>0.9999997661043111</v>
+        <v>0.9999866270966542</v>
       </c>
       <c r="E9" t="inlineStr">
+        <is>
+          <t>o__Bacteroidales</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
         <is>
           <t>o__Bacteroidales</t>
         </is>
@@ -636,15 +681,20 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.9999999697444814</v>
+        <v>0.999991266316289</v>
       </c>
       <c r="C10" t="n">
-        <v>3.025551863052274e-08</v>
+        <v>8.733683711040904e-06</v>
       </c>
       <c r="D10" t="n">
-        <v>0.9999999697444814</v>
+        <v>0.999991266316289</v>
       </c>
       <c r="E10" t="inlineStr">
+        <is>
+          <t>o__Bacteroidales</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
         <is>
           <t>o__Bacteroidales</t>
         </is>
@@ -657,15 +707,20 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.9999999999999778</v>
+        <v>0.9999999439047068</v>
       </c>
       <c r="C11" t="n">
-        <v>2.220446049250264e-14</v>
+        <v>5.609529315259156e-08</v>
       </c>
       <c r="D11" t="n">
-        <v>0.9999999999999778</v>
+        <v>0.9999999439047068</v>
       </c>
       <c r="E11" t="inlineStr">
+        <is>
+          <t>o__Bacteroidales</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
         <is>
           <t>o__Bacteroidales</t>
         </is>
@@ -678,15 +733,20 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.9999923344608126</v>
+        <v>0.9999952963626944</v>
       </c>
       <c r="C12" t="n">
-        <v>7.665539187412788e-06</v>
+        <v>4.703637305660809e-06</v>
       </c>
       <c r="D12" t="n">
-        <v>0.9999923344608126</v>
+        <v>0.9999952963626944</v>
       </c>
       <c r="E12" t="inlineStr">
+        <is>
+          <t>o__Bacteroidales</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
         <is>
           <t>o__Bacteroidales</t>
         </is>
@@ -699,15 +759,20 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.9999996972627107</v>
+        <v>0.9999879799609835</v>
       </c>
       <c r="C13" t="n">
-        <v>3.027372893809369e-07</v>
+        <v>1.202003901641226e-05</v>
       </c>
       <c r="D13" t="n">
-        <v>0.9999996972627107</v>
+        <v>0.9999879799609835</v>
       </c>
       <c r="E13" t="inlineStr">
+        <is>
+          <t>o__Bacteroidales</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
         <is>
           <t>o__Bacteroidales</t>
         </is>
@@ -720,15 +785,20 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.9999999999999778</v>
+        <v>0.9999999985053379</v>
       </c>
       <c r="C14" t="n">
-        <v>2.220446049250264e-14</v>
+        <v>1.494662101745814e-09</v>
       </c>
       <c r="D14" t="n">
-        <v>0.9999999999999778</v>
+        <v>0.9999999985053379</v>
       </c>
       <c r="E14" t="inlineStr">
+        <is>
+          <t>o__Bacteroidales</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
         <is>
           <t>o__Bacteroidales</t>
         </is>
@@ -741,15 +811,20 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.9999993593499359</v>
+        <v>0.999985329984509</v>
       </c>
       <c r="C15" t="n">
-        <v>6.406500640926091e-07</v>
+        <v>1.467001549108616e-05</v>
       </c>
       <c r="D15" t="n">
-        <v>0.9999993593499359</v>
+        <v>0.999985329984509</v>
       </c>
       <c r="E15" t="inlineStr">
+        <is>
+          <t>o__Bacteroidales</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
         <is>
           <t>o__Bacteroidales</t>
         </is>
@@ -762,15 +837,20 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.9999943342007851</v>
+        <v>0.9999999174699388</v>
       </c>
       <c r="C16" t="n">
-        <v>5.665799214858477e-06</v>
+        <v>8.253006122560476e-08</v>
       </c>
       <c r="D16" t="n">
-        <v>0.9999943342007851</v>
+        <v>0.9999999174699388</v>
       </c>
       <c r="E16" t="inlineStr">
+        <is>
+          <t>o__Bacteroidales</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
         <is>
           <t>o__Bacteroidales</t>
         </is>
@@ -783,15 +863,20 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0.9999922541737385</v>
+        <v>0.999991648765266</v>
       </c>
       <c r="C17" t="n">
-        <v>7.745826261509963e-06</v>
+        <v>8.351234734010399e-06</v>
       </c>
       <c r="D17" t="n">
-        <v>0.9999922541737385</v>
+        <v>0.999991648765266</v>
       </c>
       <c r="E17" t="inlineStr">
+        <is>
+          <t>o__Bacteroidales</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
         <is>
           <t>o__Bacteroidales</t>
         </is>
@@ -804,15 +889,20 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0.9999993597813582</v>
+        <v>0.9999998946343891</v>
       </c>
       <c r="C18" t="n">
-        <v>6.402186417606276e-07</v>
+        <v>1.05365610875835e-07</v>
       </c>
       <c r="D18" t="n">
-        <v>0.9999993597813582</v>
+        <v>0.9999998946343891</v>
       </c>
       <c r="E18" t="inlineStr">
+        <is>
+          <t>o__Bacteroidales</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
         <is>
           <t>o__Bacteroidales</t>
         </is>
@@ -825,15 +915,20 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0.9999994509563419</v>
+        <v>0.9999922753054763</v>
       </c>
       <c r="C19" t="n">
-        <v>5.490436580560053e-07</v>
+        <v>7.72469452371402e-06</v>
       </c>
       <c r="D19" t="n">
-        <v>0.9999994509563419</v>
+        <v>0.9999922753054763</v>
       </c>
       <c r="E19" t="inlineStr">
+        <is>
+          <t>o__Bacteroidales</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
         <is>
           <t>o__Bacteroidales</t>
         </is>
@@ -846,15 +941,20 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0.9999751154404664</v>
+        <v>0.9999897068072418</v>
       </c>
       <c r="C20" t="n">
-        <v>2.488455953365107e-05</v>
+        <v>1.029319275830273e-05</v>
       </c>
       <c r="D20" t="n">
-        <v>0.9999751154404664</v>
+        <v>0.9999897068072418</v>
       </c>
       <c r="E20" t="inlineStr">
+        <is>
+          <t>o__Bacteroidales</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
         <is>
           <t>o__Bacteroidales</t>
         </is>
@@ -867,15 +967,20 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0.9999995610665706</v>
+        <v>0.9999899927227461</v>
       </c>
       <c r="C21" t="n">
-        <v>4.389334293478197e-07</v>
+        <v>1.000727725383966e-05</v>
       </c>
       <c r="D21" t="n">
-        <v>0.9999995610665706</v>
+        <v>0.9999899927227461</v>
       </c>
       <c r="E21" t="inlineStr">
+        <is>
+          <t>o__Bacteroidales</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
         <is>
           <t>o__Bacteroidales</t>
         </is>
@@ -888,15 +993,20 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0.9999972422676148</v>
+        <v>0.9999898570604363</v>
       </c>
       <c r="C22" t="n">
-        <v>2.757732385265083e-06</v>
+        <v>1.014293956372896e-05</v>
       </c>
       <c r="D22" t="n">
-        <v>0.9999972422676148</v>
+        <v>0.9999898570604363</v>
       </c>
       <c r="E22" t="inlineStr">
+        <is>
+          <t>o__Bacteroidales</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
         <is>
           <t>o__Bacteroidales</t>
         </is>
@@ -909,15 +1019,20 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0.9999986395690489</v>
+        <v>0.9999973512961808</v>
       </c>
       <c r="C23" t="n">
-        <v>1.360430951076859e-06</v>
+        <v>2.648703819136558e-06</v>
       </c>
       <c r="D23" t="n">
-        <v>0.9999986395690489</v>
+        <v>0.9999973512961808</v>
       </c>
       <c r="E23" t="inlineStr">
+        <is>
+          <t>o__Bacteroidales</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
         <is>
           <t>o__Bacteroidales</t>
         </is>
@@ -930,15 +1045,20 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0.9999991127112353</v>
+        <v>0.9999998155575693</v>
       </c>
       <c r="C24" t="n">
-        <v>8.872887646887796e-07</v>
+        <v>1.844424306098869e-07</v>
       </c>
       <c r="D24" t="n">
-        <v>0.9999991127112353</v>
+        <v>0.9999998155575693</v>
       </c>
       <c r="E24" t="inlineStr">
+        <is>
+          <t>o__Bacteroidales</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
         <is>
           <t>o__Bacteroidales</t>
         </is>
@@ -951,15 +1071,20 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0.9999949598010983</v>
+        <v>0.9999898831549991</v>
       </c>
       <c r="C25" t="n">
-        <v>5.040198901735375e-06</v>
+        <v>1.011684500083677e-05</v>
       </c>
       <c r="D25" t="n">
-        <v>0.9999949598010983</v>
+        <v>0.9999898831549991</v>
       </c>
       <c r="E25" t="inlineStr">
+        <is>
+          <t>o__Bacteroidales</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
         <is>
           <t>o__Bacteroidales</t>
         </is>
@@ -972,15 +1097,20 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0.9999740868851725</v>
+        <v>0.9999997488108235</v>
       </c>
       <c r="C26" t="n">
-        <v>2.591311482743673e-05</v>
+        <v>2.511891764612412e-07</v>
       </c>
       <c r="D26" t="n">
-        <v>0.9999740868851725</v>
+        <v>0.9999997488108235</v>
       </c>
       <c r="E26" t="inlineStr">
+        <is>
+          <t>o__Bacteroidales</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
         <is>
           <t>o__Bacteroidales</t>
         </is>
@@ -993,15 +1123,20 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>0.9999984332774438</v>
+        <v>0.9999998997631835</v>
       </c>
       <c r="C27" t="n">
-        <v>1.56672255621221e-06</v>
+        <v>1.002368164967196e-07</v>
       </c>
       <c r="D27" t="n">
-        <v>0.9999984332774438</v>
+        <v>0.9999998997631835</v>
       </c>
       <c r="E27" t="inlineStr">
+        <is>
+          <t>o__Bacteroidales</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
         <is>
           <t>o__Bacteroidales</t>
         </is>
@@ -1014,15 +1149,20 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0.9999886911646393</v>
+        <v>0.9999905790673012</v>
       </c>
       <c r="C28" t="n">
-        <v>1.130883536066101e-05</v>
+        <v>9.420932698804605e-06</v>
       </c>
       <c r="D28" t="n">
-        <v>0.9999886911646393</v>
+        <v>0.9999905790673012</v>
       </c>
       <c r="E28" t="inlineStr">
+        <is>
+          <t>o__Bacteroidales</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
         <is>
           <t>o__Bacteroidales</t>
         </is>
@@ -1035,15 +1175,20 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0.9999998220855115</v>
+        <v>0.9999999768265943</v>
       </c>
       <c r="C29" t="n">
-        <v>1.77914488503723e-07</v>
+        <v>2.317340576651434e-08</v>
       </c>
       <c r="D29" t="n">
-        <v>0.9999998220855115</v>
+        <v>0.9999999768265943</v>
       </c>
       <c r="E29" t="inlineStr">
+        <is>
+          <t>o__Bacteroidales</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
         <is>
           <t>o__Bacteroidales</t>
         </is>
@@ -1056,15 +1201,20 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>0.9999979372248173</v>
+        <v>0.9999999436479037</v>
       </c>
       <c r="C30" t="n">
-        <v>2.062775182668236e-06</v>
+        <v>5.635209629809847e-08</v>
       </c>
       <c r="D30" t="n">
-        <v>0.9999979372248173</v>
+        <v>0.9999999436479037</v>
       </c>
       <c r="E30" t="inlineStr">
+        <is>
+          <t>o__Bacteroidales</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
         <is>
           <t>o__Bacteroidales</t>
         </is>
@@ -1077,15 +1227,20 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0.9999995955868045</v>
+        <v>0.9999948298830785</v>
       </c>
       <c r="C31" t="n">
-        <v>4.044131955246718e-07</v>
+        <v>5.17011692152221e-06</v>
       </c>
       <c r="D31" t="n">
-        <v>0.9999995955868045</v>
+        <v>0.9999948298830785</v>
       </c>
       <c r="E31" t="inlineStr">
+        <is>
+          <t>o__Bacteroidales</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
         <is>
           <t>o__Bacteroidales</t>
         </is>
@@ -1098,15 +1253,20 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0.9999017419575683</v>
+        <v>0.9999992347906627</v>
       </c>
       <c r="C32" t="n">
-        <v>9.825804243170537e-05</v>
+        <v>7.652093372906763e-07</v>
       </c>
       <c r="D32" t="n">
-        <v>0.9999017419575683</v>
+        <v>0.9999992347906627</v>
       </c>
       <c r="E32" t="inlineStr">
+        <is>
+          <t>o__Bacteroidales</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
         <is>
           <t>o__Bacteroidales</t>
         </is>
@@ -1119,15 +1279,20 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>0.9999996446245595</v>
+        <v>0.9999999129538647</v>
       </c>
       <c r="C33" t="n">
-        <v>3.553754405080403e-07</v>
+        <v>8.704613527612621e-08</v>
       </c>
       <c r="D33" t="n">
-        <v>0.9999996446245595</v>
+        <v>0.9999999129538647</v>
       </c>
       <c r="E33" t="inlineStr">
+        <is>
+          <t>o__Bacteroidales</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
         <is>
           <t>o__Bacteroidales</t>
         </is>
@@ -1140,15 +1305,20 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0.9999993972521016</v>
+        <v>0.9999999166137383</v>
       </c>
       <c r="C34" t="n">
-        <v>6.027478984122961e-07</v>
+        <v>8.338626166618561e-08</v>
       </c>
       <c r="D34" t="n">
-        <v>0.9999993972521016</v>
+        <v>0.9999999166137383</v>
       </c>
       <c r="E34" t="inlineStr">
+        <is>
+          <t>o__Bacteroidales</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
         <is>
           <t>o__Bacteroidales</t>
         </is>
@@ -1161,15 +1331,20 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0.99999828098205</v>
+        <v>0.9999999665790588</v>
       </c>
       <c r="C35" t="n">
-        <v>1.719017949956103e-06</v>
+        <v>3.342094118377207e-08</v>
       </c>
       <c r="D35" t="n">
-        <v>0.99999828098205</v>
+        <v>0.9999999665790588</v>
       </c>
       <c r="E35" t="inlineStr">
+        <is>
+          <t>o__Bacteroidales</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
         <is>
           <t>o__Bacteroidales</t>
         </is>
@@ -1182,15 +1357,20 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>0.9998026539249973</v>
+        <v>0.9999845692774557</v>
       </c>
       <c r="C36" t="n">
-        <v>0.0001973460750026065</v>
+        <v>1.543072254433067e-05</v>
       </c>
       <c r="D36" t="n">
-        <v>0.9998026539249973</v>
+        <v>0.9999845692774557</v>
       </c>
       <c r="E36" t="inlineStr">
+        <is>
+          <t>o__Bacteroidales</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
         <is>
           <t>o__Bacteroidales</t>
         </is>
@@ -1203,15 +1383,20 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0.9999999320607911</v>
+        <v>0.9999966470756307</v>
       </c>
       <c r="C37" t="n">
-        <v>6.793920892710633e-08</v>
+        <v>3.352924369252602e-06</v>
       </c>
       <c r="D37" t="n">
-        <v>0.9999999320607911</v>
+        <v>0.9999966470756307</v>
       </c>
       <c r="E37" t="inlineStr">
+        <is>
+          <t>o__Bacteroidales</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
         <is>
           <t>o__Bacteroidales</t>
         </is>
@@ -1224,15 +1409,20 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0.9999850295830708</v>
+        <v>0.999999668021224</v>
       </c>
       <c r="C38" t="n">
-        <v>1.49704169292039e-05</v>
+        <v>3.319787760150089e-07</v>
       </c>
       <c r="D38" t="n">
-        <v>0.9999850295830708</v>
+        <v>0.999999668021224</v>
       </c>
       <c r="E38" t="inlineStr">
+        <is>
+          <t>o__Bacteroidales</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
         <is>
           <t>o__Bacteroidales</t>
         </is>
@@ -1245,15 +1435,20 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>0.9999965637863752</v>
+        <v>0.9999999580441186</v>
       </c>
       <c r="C39" t="n">
-        <v>3.436213624801266e-06</v>
+        <v>4.195588144450842e-08</v>
       </c>
       <c r="D39" t="n">
-        <v>0.9999965637863752</v>
+        <v>0.9999999580441186</v>
       </c>
       <c r="E39" t="inlineStr">
+        <is>
+          <t>o__Bacteroidales</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
         <is>
           <t>o__Bacteroidales</t>
         </is>
@@ -1266,15 +1461,20 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0.9999988532209347</v>
+        <v>0.9999999556561713</v>
       </c>
       <c r="C40" t="n">
-        <v>1.146779065222137e-06</v>
+        <v>4.434382871537253e-08</v>
       </c>
       <c r="D40" t="n">
-        <v>0.9999988532209347</v>
+        <v>0.9999999556561713</v>
       </c>
       <c r="E40" t="inlineStr">
+        <is>
+          <t>o__Bacteroidales</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
         <is>
           <t>o__Bacteroidales</t>
         </is>
@@ -1287,15 +1487,20 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0.9999999412623961</v>
+        <v>0.9999999092370692</v>
       </c>
       <c r="C41" t="n">
-        <v>5.873760388632179e-08</v>
+        <v>9.07629308919183e-08</v>
       </c>
       <c r="D41" t="n">
-        <v>0.9999999412623961</v>
+        <v>0.9999999092370692</v>
       </c>
       <c r="E41" t="inlineStr">
+        <is>
+          <t>o__Bacteroidales</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
         <is>
           <t>o__Bacteroidales</t>
         </is>
@@ -1308,15 +1513,20 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>0.9999985277044103</v>
+        <v>0.9999999286221618</v>
       </c>
       <c r="C42" t="n">
-        <v>1.472295589649355e-06</v>
+        <v>7.137783820995099e-08</v>
       </c>
       <c r="D42" t="n">
-        <v>0.9999985277044103</v>
+        <v>0.9999999286221618</v>
       </c>
       <c r="E42" t="inlineStr">
+        <is>
+          <t>o__Bacteroidales</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
         <is>
           <t>o__Bacteroidales</t>
         </is>
@@ -1329,15 +1539,20 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0.9999970129556446</v>
+        <v>0.9999999614592824</v>
       </c>
       <c r="C43" t="n">
-        <v>2.987044355433243e-06</v>
+        <v>3.854071762810508e-08</v>
       </c>
       <c r="D43" t="n">
-        <v>0.9999970129556446</v>
+        <v>0.9999999614592824</v>
       </c>
       <c r="E43" t="inlineStr">
+        <is>
+          <t>o__Bacteroidales</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
         <is>
           <t>o__Bacteroidales</t>
         </is>
@@ -1350,15 +1565,20 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0.9999994006318158</v>
+        <v>0.9999999673463987</v>
       </c>
       <c r="C44" t="n">
-        <v>5.99368184198943e-07</v>
+        <v>3.265360128094963e-08</v>
       </c>
       <c r="D44" t="n">
-        <v>0.9999994006318158</v>
+        <v>0.9999999673463987</v>
       </c>
       <c r="E44" t="inlineStr">
+        <is>
+          <t>o__Bacteroidales</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
         <is>
           <t>o__Bacteroidales</t>
         </is>
@@ -1371,15 +1591,20 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>0.99998131761603</v>
+        <v>0.9999963763932074</v>
       </c>
       <c r="C45" t="n">
-        <v>1.868238397001179e-05</v>
+        <v>3.62360679259098e-06</v>
       </c>
       <c r="D45" t="n">
-        <v>0.99998131761603</v>
+        <v>0.9999963763932074</v>
       </c>
       <c r="E45" t="inlineStr">
+        <is>
+          <t>o__Bacteroidales</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
         <is>
           <t>o__Bacteroidales</t>
         </is>
@@ -1392,15 +1617,20 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0.9999949262726298</v>
+        <v>0.9999983902272801</v>
       </c>
       <c r="C46" t="n">
-        <v>5.073727370291318e-06</v>
+        <v>1.609772719905307e-06</v>
       </c>
       <c r="D46" t="n">
-        <v>0.9999949262726298</v>
+        <v>0.9999983902272801</v>
       </c>
       <c r="E46" t="inlineStr">
+        <is>
+          <t>o__Bacteroidales</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
         <is>
           <t>o__Bacteroidales</t>
         </is>
@@ -1413,15 +1643,20 @@
         </is>
       </c>
       <c r="B47" t="n">
-        <v>0.9999982460023246</v>
+        <v>0.9999999634884441</v>
       </c>
       <c r="C47" t="n">
-        <v>1.753997675442233e-06</v>
+        <v>3.651155593661185e-08</v>
       </c>
       <c r="D47" t="n">
-        <v>0.9999982460023246</v>
+        <v>0.9999999634884441</v>
       </c>
       <c r="E47" t="inlineStr">
+        <is>
+          <t>o__Bacteroidales</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
         <is>
           <t>o__Bacteroidales</t>
         </is>
@@ -1434,15 +1669,20 @@
         </is>
       </c>
       <c r="B48" t="n">
-        <v>0.9999875269029237</v>
+        <v>0.9999999319315489</v>
       </c>
       <c r="C48" t="n">
-        <v>1.247309707628923e-05</v>
+        <v>6.806845114956653e-08</v>
       </c>
       <c r="D48" t="n">
-        <v>0.9999875269029237</v>
+        <v>0.9999999319315489</v>
       </c>
       <c r="E48" t="inlineStr">
+        <is>
+          <t>o__Bacteroidales</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
         <is>
           <t>o__Bacteroidales</t>
         </is>
@@ -1455,15 +1695,20 @@
         </is>
       </c>
       <c r="B49" t="n">
-        <v>0.9998636241929294</v>
+        <v>0.9999910973029048</v>
       </c>
       <c r="C49" t="n">
-        <v>0.000136375807070654</v>
+        <v>8.902697095151438e-06</v>
       </c>
       <c r="D49" t="n">
-        <v>0.9998636241929294</v>
+        <v>0.9999910973029048</v>
       </c>
       <c r="E49" t="inlineStr">
+        <is>
+          <t>o__Bacteroidales</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
         <is>
           <t>o__Bacteroidales</t>
         </is>
@@ -1476,15 +1721,20 @@
         </is>
       </c>
       <c r="B50" t="n">
-        <v>0.9999798426628717</v>
+        <v>0.9999999275429635</v>
       </c>
       <c r="C50" t="n">
-        <v>2.015733712835159e-05</v>
+        <v>7.245703645240293e-08</v>
       </c>
       <c r="D50" t="n">
-        <v>0.9999798426628717</v>
+        <v>0.9999999275429635</v>
       </c>
       <c r="E50" t="inlineStr">
+        <is>
+          <t>o__Bacteroidales</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
         <is>
           <t>o__Bacteroidales</t>
         </is>
@@ -1497,15 +1747,20 @@
         </is>
       </c>
       <c r="B51" t="n">
-        <v>0.9997806579950076</v>
+        <v>0.9999946587536879</v>
       </c>
       <c r="C51" t="n">
-        <v>0.0002193420049924365</v>
+        <v>5.341246312159723e-06</v>
       </c>
       <c r="D51" t="n">
-        <v>0.9997806579950076</v>
+        <v>0.9999946587536879</v>
       </c>
       <c r="E51" t="inlineStr">
+        <is>
+          <t>o__Bacteroidales</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
         <is>
           <t>o__Bacteroidales</t>
         </is>
@@ -1518,15 +1773,20 @@
         </is>
       </c>
       <c r="B52" t="n">
-        <v>0.999999920425312</v>
+        <v>0.999997004719787</v>
       </c>
       <c r="C52" t="n">
-        <v>7.95746879269919e-08</v>
+        <v>2.995280212979857e-06</v>
       </c>
       <c r="D52" t="n">
-        <v>0.999999920425312</v>
+        <v>0.999997004719787</v>
       </c>
       <c r="E52" t="inlineStr">
+        <is>
+          <t>o__Bacteroidales</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
         <is>
           <t>o__Bacteroidales</t>
         </is>
@@ -1539,15 +1799,20 @@
         </is>
       </c>
       <c r="B53" t="n">
-        <v>0.9999997199769617</v>
+        <v>0.999998771543231</v>
       </c>
       <c r="C53" t="n">
-        <v>2.800230383094201e-07</v>
+        <v>1.228456768998578e-06</v>
       </c>
       <c r="D53" t="n">
-        <v>0.9999997199769617</v>
+        <v>0.999998771543231</v>
       </c>
       <c r="E53" t="inlineStr">
+        <is>
+          <t>o__Bacteroidales</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
         <is>
           <t>o__Bacteroidales</t>
         </is>
@@ -1560,15 +1825,20 @@
         </is>
       </c>
       <c r="B54" t="n">
-        <v>0.9999996436032115</v>
+        <v>0.9999999297127461</v>
       </c>
       <c r="C54" t="n">
-        <v>3.563967885489377e-07</v>
+        <v>7.028725394617296e-08</v>
       </c>
       <c r="D54" t="n">
-        <v>0.9999996436032115</v>
+        <v>0.9999999297127461</v>
       </c>
       <c r="E54" t="inlineStr">
+        <is>
+          <t>o__Bacteroidales</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
         <is>
           <t>o__Bacteroidales</t>
         </is>
@@ -1581,15 +1851,20 @@
         </is>
       </c>
       <c r="B55" t="n">
-        <v>0.9999996730144479</v>
+        <v>0.9999999826680533</v>
       </c>
       <c r="C55" t="n">
-        <v>3.269855520255081e-07</v>
+        <v>1.733194667412181e-08</v>
       </c>
       <c r="D55" t="n">
-        <v>0.9999996730144479</v>
+        <v>0.9999999826680533</v>
       </c>
       <c r="E55" t="inlineStr">
+        <is>
+          <t>o__Bacteroidales</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
         <is>
           <t>o__Bacteroidales</t>
         </is>
@@ -1602,15 +1877,20 @@
         </is>
       </c>
       <c r="B56" t="n">
-        <v>0.999999080279272</v>
+        <v>0.9999935573349664</v>
       </c>
       <c r="C56" t="n">
-        <v>9.197207280046158e-07</v>
+        <v>6.442665033556881e-06</v>
       </c>
       <c r="D56" t="n">
-        <v>0.999999080279272</v>
+        <v>0.9999935573349664</v>
       </c>
       <c r="E56" t="inlineStr">
+        <is>
+          <t>o__Bacteroidales</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
         <is>
           <t>o__Bacteroidales</t>
         </is>
@@ -1623,15 +1903,20 @@
         </is>
       </c>
       <c r="B57" t="n">
-        <v>0.999999657358519</v>
+        <v>0.9999998027683924</v>
       </c>
       <c r="C57" t="n">
-        <v>3.426414810042331e-07</v>
+        <v>1.972316075592791e-07</v>
       </c>
       <c r="D57" t="n">
-        <v>0.999999657358519</v>
+        <v>0.9999998027683924</v>
       </c>
       <c r="E57" t="inlineStr">
+        <is>
+          <t>o__Bacteroidales</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
         <is>
           <t>o__Bacteroidales</t>
         </is>
@@ -1644,15 +1929,20 @@
         </is>
       </c>
       <c r="B58" t="n">
-        <v>0.9999836790936301</v>
+        <v>0.9999994534466476</v>
       </c>
       <c r="C58" t="n">
-        <v>1.632090636997655e-05</v>
+        <v>5.465533523933429e-07</v>
       </c>
       <c r="D58" t="n">
-        <v>0.9999836790936301</v>
+        <v>0.9999994534466476</v>
       </c>
       <c r="E58" t="inlineStr">
+        <is>
+          <t>o__Bacteroidales</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
         <is>
           <t>o__Bacteroidales</t>
         </is>
@@ -1665,15 +1955,20 @@
         </is>
       </c>
       <c r="B59" t="n">
-        <v>0.9993092500697318</v>
+        <v>0.9999857735129342</v>
       </c>
       <c r="C59" t="n">
-        <v>0.0006907499302681471</v>
+        <v>1.422648706582558e-05</v>
       </c>
       <c r="D59" t="n">
-        <v>0.9993092500697318</v>
+        <v>0.9999857735129342</v>
       </c>
       <c r="E59" t="inlineStr">
+        <is>
+          <t>o__Bacteroidales</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
         <is>
           <t>o__Bacteroidales</t>
         </is>
@@ -1686,15 +1981,20 @@
         </is>
       </c>
       <c r="B60" t="n">
-        <v>0.9999999999995369</v>
+        <v>0.9999998029572206</v>
       </c>
       <c r="C60" t="n">
-        <v>4.631121561198875e-13</v>
+        <v>1.970427794213616e-07</v>
       </c>
       <c r="D60" t="n">
-        <v>0.9999999999995369</v>
+        <v>0.9999998029572206</v>
       </c>
       <c r="E60" t="inlineStr">
+        <is>
+          <t>o__Bacteroidales</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
         <is>
           <t>o__Bacteroidales</t>
         </is>
@@ -1707,15 +2007,20 @@
         </is>
       </c>
       <c r="B61" t="n">
-        <v>0.9999998899895335</v>
+        <v>0.9999999716434009</v>
       </c>
       <c r="C61" t="n">
-        <v>1.100104664939045e-07</v>
+        <v>2.835659906148584e-08</v>
       </c>
       <c r="D61" t="n">
-        <v>0.9999998899895335</v>
+        <v>0.9999999716434009</v>
       </c>
       <c r="E61" t="inlineStr">
+        <is>
+          <t>o__Bacteroidales</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
         <is>
           <t>o__Bacteroidales</t>
         </is>
@@ -1728,15 +2033,20 @@
         </is>
       </c>
       <c r="B62" t="n">
-        <v>0.9999999320046287</v>
+        <v>0.9999998636552448</v>
       </c>
       <c r="C62" t="n">
-        <v>6.799537130765664e-08</v>
+        <v>1.363447551960346e-07</v>
       </c>
       <c r="D62" t="n">
-        <v>0.9999999320046287</v>
+        <v>0.9999998636552448</v>
       </c>
       <c r="E62" t="inlineStr">
+        <is>
+          <t>o__Bacteroidales</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
         <is>
           <t>o__Bacteroidales</t>
         </is>
@@ -1749,15 +2059,20 @@
         </is>
       </c>
       <c r="B63" t="n">
-        <v>0.9999993550974261</v>
+        <v>0.9999999435226007</v>
       </c>
       <c r="C63" t="n">
-        <v>6.449025738547033e-07</v>
+        <v>5.647739936570214e-08</v>
       </c>
       <c r="D63" t="n">
-        <v>0.9999993550974261</v>
+        <v>0.9999999435226007</v>
       </c>
       <c r="E63" t="inlineStr">
+        <is>
+          <t>o__Bacteroidales</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
         <is>
           <t>o__Bacteroidales</t>
         </is>
@@ -1770,15 +2085,20 @@
         </is>
       </c>
       <c r="B64" t="n">
-        <v>0.9999992649585441</v>
+        <v>0.9999995796543701</v>
       </c>
       <c r="C64" t="n">
-        <v>7.350414558730892e-07</v>
+        <v>4.203456298823846e-07</v>
       </c>
       <c r="D64" t="n">
-        <v>0.9999992649585441</v>
+        <v>0.9999995796543701</v>
       </c>
       <c r="E64" t="inlineStr">
+        <is>
+          <t>o__Bacteroidales</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
         <is>
           <t>o__Bacteroidales</t>
         </is>
@@ -1791,15 +2111,20 @@
         </is>
       </c>
       <c r="B65" t="n">
-        <v>0.9999999582198846</v>
+        <v>0.999845804321613</v>
       </c>
       <c r="C65" t="n">
-        <v>4.178011539229873e-08</v>
+        <v>0.000154195678387063</v>
       </c>
       <c r="D65" t="n">
-        <v>0.9999999582198846</v>
+        <v>0.999845804321613</v>
       </c>
       <c r="E65" t="inlineStr">
+        <is>
+          <t>o__Bacteroidales</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
         <is>
           <t>o__Bacteroidales</t>
         </is>
@@ -1812,15 +2137,20 @@
         </is>
       </c>
       <c r="B66" t="n">
-        <v>0.9999999999999778</v>
+        <v>0.9999999999712619</v>
       </c>
       <c r="C66" t="n">
-        <v>2.220446049250264e-14</v>
+        <v>2.873814981554015e-11</v>
       </c>
       <c r="D66" t="n">
-        <v>0.9999999999999778</v>
+        <v>0.9999999999712619</v>
       </c>
       <c r="E66" t="inlineStr">
+        <is>
+          <t>o__Bacteroidales</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
         <is>
           <t>o__Bacteroidales</t>
         </is>
@@ -1833,15 +2163,20 @@
         </is>
       </c>
       <c r="B67" t="n">
-        <v>0.9999817062191417</v>
+        <v>0.9999998412204331</v>
       </c>
       <c r="C67" t="n">
-        <v>1.829378085828817e-05</v>
+        <v>1.587795669278958e-07</v>
       </c>
       <c r="D67" t="n">
-        <v>0.9999817062191417</v>
+        <v>0.9999998412204331</v>
       </c>
       <c r="E67" t="inlineStr">
+        <is>
+          <t>o__Bacteroidales</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
         <is>
           <t>o__Bacteroidales</t>
         </is>
@@ -1854,15 +2189,20 @@
         </is>
       </c>
       <c r="B68" t="n">
-        <v>0.9999999900713337</v>
+        <v>0.9999999794061326</v>
       </c>
       <c r="C68" t="n">
-        <v>9.928666324887789e-09</v>
+        <v>2.059386733403981e-08</v>
       </c>
       <c r="D68" t="n">
-        <v>0.9999999900713337</v>
+        <v>0.9999999794061326</v>
       </c>
       <c r="E68" t="inlineStr">
+        <is>
+          <t>o__Bacteroidales</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr">
         <is>
           <t>o__Bacteroidales</t>
         </is>
@@ -1875,15 +2215,20 @@
         </is>
       </c>
       <c r="B69" t="n">
-        <v>0.9999997911203399</v>
+        <v>0.9999998318484601</v>
       </c>
       <c r="C69" t="n">
-        <v>2.08879660099072e-07</v>
+        <v>1.681515399548501e-07</v>
       </c>
       <c r="D69" t="n">
-        <v>0.9999997911203399</v>
+        <v>0.9999998318484601</v>
       </c>
       <c r="E69" t="inlineStr">
+        <is>
+          <t>o__Bacteroidales</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr">
         <is>
           <t>o__Bacteroidales</t>
         </is>
@@ -1896,15 +2241,20 @@
         </is>
       </c>
       <c r="B70" t="n">
-        <v>0.9999996851248526</v>
+        <v>0.9999999698305742</v>
       </c>
       <c r="C70" t="n">
-        <v>3.148751474430789e-07</v>
+        <v>3.016942587628356e-08</v>
       </c>
       <c r="D70" t="n">
-        <v>0.9999996851248526</v>
+        <v>0.9999999698305742</v>
       </c>
       <c r="E70" t="inlineStr">
+        <is>
+          <t>o__Bacteroidales</t>
+        </is>
+      </c>
+      <c r="F70" t="inlineStr">
         <is>
           <t>o__Bacteroidales</t>
         </is>
@@ -1917,15 +2267,20 @@
         </is>
       </c>
       <c r="B71" t="n">
-        <v>0.9999999999999778</v>
+        <v>0.999999999973526</v>
       </c>
       <c r="C71" t="n">
-        <v>2.220446049250264e-14</v>
+        <v>2.647404567080837e-11</v>
       </c>
       <c r="D71" t="n">
-        <v>0.9999999999999778</v>
+        <v>0.999999999973526</v>
       </c>
       <c r="E71" t="inlineStr">
+        <is>
+          <t>o__Bacteroidales</t>
+        </is>
+      </c>
+      <c r="F71" t="inlineStr">
         <is>
           <t>o__Bacteroidales</t>
         </is>
@@ -1938,15 +2293,20 @@
         </is>
       </c>
       <c r="B72" t="n">
-        <v>0.9999997242292011</v>
+        <v>0.9999998866077534</v>
       </c>
       <c r="C72" t="n">
-        <v>2.757707988149443e-07</v>
+        <v>1.133922465664221e-07</v>
       </c>
       <c r="D72" t="n">
-        <v>0.9999997242292011</v>
+        <v>0.9999998866077534</v>
       </c>
       <c r="E72" t="inlineStr">
+        <is>
+          <t>o__Bacteroidales</t>
+        </is>
+      </c>
+      <c r="F72" t="inlineStr">
         <is>
           <t>o__Bacteroidales</t>
         </is>
@@ -1959,15 +2319,20 @@
         </is>
       </c>
       <c r="B73" t="n">
-        <v>0.9999905260031217</v>
+        <v>0.9999999151893333</v>
       </c>
       <c r="C73" t="n">
-        <v>9.473996878326769e-06</v>
+        <v>8.481066669443388e-08</v>
       </c>
       <c r="D73" t="n">
-        <v>0.9999905260031217</v>
+        <v>0.9999999151893333</v>
       </c>
       <c r="E73" t="inlineStr">
+        <is>
+          <t>o__Bacteroidales</t>
+        </is>
+      </c>
+      <c r="F73" t="inlineStr">
         <is>
           <t>o__Bacteroidales</t>
         </is>
@@ -1980,15 +2345,20 @@
         </is>
       </c>
       <c r="B74" t="n">
-        <v>0.9999999999999778</v>
+        <v>0.9999999999980906</v>
       </c>
       <c r="C74" t="n">
-        <v>2.220446049250264e-14</v>
+        <v>1.909341485382336e-12</v>
       </c>
       <c r="D74" t="n">
-        <v>0.9999999999999778</v>
+        <v>0.9999999999980906</v>
       </c>
       <c r="E74" t="inlineStr">
+        <is>
+          <t>o__Bacteroidales</t>
+        </is>
+      </c>
+      <c r="F74" t="inlineStr">
         <is>
           <t>o__Bacteroidales</t>
         </is>
@@ -2001,15 +2371,20 @@
         </is>
       </c>
       <c r="B75" t="n">
-        <v>0.9999998999411362</v>
+        <v>0.9999998970104202</v>
       </c>
       <c r="C75" t="n">
-        <v>1.000588637742003e-07</v>
+        <v>1.029895797598454e-07</v>
       </c>
       <c r="D75" t="n">
-        <v>0.9999998999411362</v>
+        <v>0.9999998970104202</v>
       </c>
       <c r="E75" t="inlineStr">
+        <is>
+          <t>o__Bacteroidales</t>
+        </is>
+      </c>
+      <c r="F75" t="inlineStr">
         <is>
           <t>o__Bacteroidales</t>
         </is>
@@ -2022,15 +2397,20 @@
         </is>
       </c>
       <c r="B76" t="n">
-        <v>0.9999984029323721</v>
+        <v>0.9999999493782219</v>
       </c>
       <c r="C76" t="n">
-        <v>1.597067627944694e-06</v>
+        <v>5.062177807168626e-08</v>
       </c>
       <c r="D76" t="n">
-        <v>0.9999984029323721</v>
+        <v>0.9999999493782219</v>
       </c>
       <c r="E76" t="inlineStr">
+        <is>
+          <t>o__Bacteroidales</t>
+        </is>
+      </c>
+      <c r="F76" t="inlineStr">
         <is>
           <t>o__Bacteroidales</t>
         </is>
@@ -2043,15 +2423,20 @@
         </is>
       </c>
       <c r="B77" t="n">
-        <v>0.9999944954634202</v>
+        <v>0.9999999307603199</v>
       </c>
       <c r="C77" t="n">
-        <v>5.504536579783343e-06</v>
+        <v>6.923968013949084e-08</v>
       </c>
       <c r="D77" t="n">
-        <v>0.9999944954634202</v>
+        <v>0.9999999307603199</v>
       </c>
       <c r="E77" t="inlineStr">
+        <is>
+          <t>o__Bacteroidales</t>
+        </is>
+      </c>
+      <c r="F77" t="inlineStr">
         <is>
           <t>o__Bacteroidales</t>
         </is>
@@ -2064,15 +2449,20 @@
         </is>
       </c>
       <c r="B78" t="n">
-        <v>0.9999763917852427</v>
+        <v>0.9999999920804764</v>
       </c>
       <c r="C78" t="n">
-        <v>2.360821475730125e-05</v>
+        <v>7.91952356235679e-09</v>
       </c>
       <c r="D78" t="n">
-        <v>0.9999763917852427</v>
+        <v>0.9999999920804764</v>
       </c>
       <c r="E78" t="inlineStr">
+        <is>
+          <t>o__Bacteroidales</t>
+        </is>
+      </c>
+      <c r="F78" t="inlineStr">
         <is>
           <t>o__Bacteroidales</t>
         </is>
@@ -2085,15 +2475,20 @@
         </is>
       </c>
       <c r="B79" t="n">
-        <v>0.9999071180080026</v>
+        <v>0.9999826628564105</v>
       </c>
       <c r="C79" t="n">
-        <v>9.288199199745427e-05</v>
+        <v>1.733714358953482e-05</v>
       </c>
       <c r="D79" t="n">
-        <v>0.9999071180080026</v>
+        <v>0.9999826628564105</v>
       </c>
       <c r="E79" t="inlineStr">
+        <is>
+          <t>o__Bacteroidales</t>
+        </is>
+      </c>
+      <c r="F79" t="inlineStr">
         <is>
           <t>o__Bacteroidales</t>
         </is>
@@ -2106,15 +2501,20 @@
         </is>
       </c>
       <c r="B80" t="n">
-        <v>0.9999996889974098</v>
+        <v>0.9999999631459409</v>
       </c>
       <c r="C80" t="n">
-        <v>3.110025902196931e-07</v>
+        <v>3.685405910801134e-08</v>
       </c>
       <c r="D80" t="n">
-        <v>0.9999996889974098</v>
+        <v>0.9999999631459409</v>
       </c>
       <c r="E80" t="inlineStr">
+        <is>
+          <t>o__Bacteroidales</t>
+        </is>
+      </c>
+      <c r="F80" t="inlineStr">
         <is>
           <t>o__Bacteroidales</t>
         </is>
@@ -2127,15 +2527,20 @@
         </is>
       </c>
       <c r="B81" t="n">
-        <v>0.999866327826813</v>
+        <v>0.9999903786337536</v>
       </c>
       <c r="C81" t="n">
-        <v>0.0001336721731870121</v>
+        <v>9.621366246356386e-06</v>
       </c>
       <c r="D81" t="n">
-        <v>0.999866327826813</v>
+        <v>0.9999903786337536</v>
       </c>
       <c r="E81" t="inlineStr">
+        <is>
+          <t>o__Bacteroidales</t>
+        </is>
+      </c>
+      <c r="F81" t="inlineStr">
         <is>
           <t>o__Bacteroidales</t>
         </is>
@@ -2148,15 +2553,20 @@
         </is>
       </c>
       <c r="B82" t="n">
-        <v>0.9999999999999778</v>
+        <v>0.9999999523878528</v>
       </c>
       <c r="C82" t="n">
-        <v>2.220446049250264e-14</v>
+        <v>4.761214720459879e-08</v>
       </c>
       <c r="D82" t="n">
-        <v>0.9999999999999778</v>
+        <v>0.9999999523878528</v>
       </c>
       <c r="E82" t="inlineStr">
+        <is>
+          <t>o__Bacteroidales</t>
+        </is>
+      </c>
+      <c r="F82" t="inlineStr">
         <is>
           <t>o__Bacteroidales</t>
         </is>
@@ -2169,15 +2579,20 @@
         </is>
       </c>
       <c r="B83" t="n">
-        <v>0.9999997520323879</v>
+        <v>0.9999998018431626</v>
       </c>
       <c r="C83" t="n">
-        <v>2.479676121548956e-07</v>
+        <v>1.981568373319035e-07</v>
       </c>
       <c r="D83" t="n">
-        <v>0.9999997520323879</v>
+        <v>0.9999998018431626</v>
       </c>
       <c r="E83" t="inlineStr">
+        <is>
+          <t>o__Bacteroidales</t>
+        </is>
+      </c>
+      <c r="F83" t="inlineStr">
         <is>
           <t>o__Bacteroidales</t>
         </is>
@@ -2190,15 +2605,20 @@
         </is>
       </c>
       <c r="B84" t="n">
-        <v>0.9999995535234217</v>
+        <v>0.9999999142950663</v>
       </c>
       <c r="C84" t="n">
-        <v>4.464765782647829e-07</v>
+        <v>8.570493370623969e-08</v>
       </c>
       <c r="D84" t="n">
-        <v>0.9999995535234217</v>
+        <v>0.9999999142950663</v>
       </c>
       <c r="E84" t="inlineStr">
+        <is>
+          <t>o__Bacteroidales</t>
+        </is>
+      </c>
+      <c r="F84" t="inlineStr">
         <is>
           <t>o__Bacteroidales</t>
         </is>
@@ -2211,15 +2631,20 @@
         </is>
       </c>
       <c r="B85" t="n">
-        <v>0.9999998484571255</v>
+        <v>0.9999999491620331</v>
       </c>
       <c r="C85" t="n">
-        <v>1.51542874521935e-07</v>
+        <v>5.083796696347873e-08</v>
       </c>
       <c r="D85" t="n">
-        <v>0.9999998484571255</v>
+        <v>0.9999999491620331</v>
       </c>
       <c r="E85" t="inlineStr">
+        <is>
+          <t>o__Bacteroidales</t>
+        </is>
+      </c>
+      <c r="F85" t="inlineStr">
         <is>
           <t>o__Bacteroidales</t>
         </is>
@@ -2232,15 +2657,20 @@
         </is>
       </c>
       <c r="B86" t="n">
-        <v>0.9999993690541558</v>
+        <v>0.9999996995176799</v>
       </c>
       <c r="C86" t="n">
-        <v>6.309458442750839e-07</v>
+        <v>3.004823201045665e-07</v>
       </c>
       <c r="D86" t="n">
-        <v>0.9999993690541558</v>
+        <v>0.9999996995176799</v>
       </c>
       <c r="E86" t="inlineStr">
+        <is>
+          <t>o__Bacteroidales</t>
+        </is>
+      </c>
+      <c r="F86" t="inlineStr">
         <is>
           <t>o__Bacteroidales</t>
         </is>
@@ -2253,15 +2683,20 @@
         </is>
       </c>
       <c r="B87" t="n">
-        <v>0.9999999190310062</v>
+        <v>0.9999999458767685</v>
       </c>
       <c r="C87" t="n">
-        <v>8.096899383297158e-08</v>
+        <v>5.412323150371264e-08</v>
       </c>
       <c r="D87" t="n">
-        <v>0.9999999190310062</v>
+        <v>0.9999999458767685</v>
       </c>
       <c r="E87" t="inlineStr">
+        <is>
+          <t>o__Bacteroidales</t>
+        </is>
+      </c>
+      <c r="F87" t="inlineStr">
         <is>
           <t>o__Bacteroidales</t>
         </is>
@@ -2274,15 +2709,20 @@
         </is>
       </c>
       <c r="B88" t="n">
-        <v>0.9999999628268103</v>
+        <v>0.9999995429375784</v>
       </c>
       <c r="C88" t="n">
-        <v>3.71731897408029e-08</v>
+        <v>4.570624215574652e-07</v>
       </c>
       <c r="D88" t="n">
-        <v>0.9999999628268103</v>
+        <v>0.9999995429375784</v>
       </c>
       <c r="E88" t="inlineStr">
+        <is>
+          <t>o__Bacteroidales</t>
+        </is>
+      </c>
+      <c r="F88" t="inlineStr">
         <is>
           <t>o__Bacteroidales</t>
         </is>
@@ -2295,15 +2735,20 @@
         </is>
       </c>
       <c r="B89" t="n">
-        <v>0.9999973630081981</v>
+        <v>0.9999999166234029</v>
       </c>
       <c r="C89" t="n">
-        <v>2.636991801882254e-06</v>
+        <v>8.337659709004659e-08</v>
       </c>
       <c r="D89" t="n">
-        <v>0.9999973630081981</v>
+        <v>0.9999999166234029</v>
       </c>
       <c r="E89" t="inlineStr">
+        <is>
+          <t>o__Bacteroidales</t>
+        </is>
+      </c>
+      <c r="F89" t="inlineStr">
         <is>
           <t>o__Bacteroidales</t>
         </is>
@@ -2316,15 +2761,20 @@
         </is>
       </c>
       <c r="B90" t="n">
-        <v>0.9999991586202215</v>
+        <v>0.9999998877327805</v>
       </c>
       <c r="C90" t="n">
-        <v>8.413797784690324e-07</v>
+        <v>1.12267219472336e-07</v>
       </c>
       <c r="D90" t="n">
-        <v>0.9999991586202215</v>
+        <v>0.9999998877327805</v>
       </c>
       <c r="E90" t="inlineStr">
+        <is>
+          <t>o__Bacteroidales</t>
+        </is>
+      </c>
+      <c r="F90" t="inlineStr">
         <is>
           <t>o__Bacteroidales</t>
         </is>
@@ -2337,15 +2787,20 @@
         </is>
       </c>
       <c r="B91" t="n">
-        <v>0.9999965581272156</v>
+        <v>0.9999999470725681</v>
       </c>
       <c r="C91" t="n">
-        <v>3.441872784406594e-06</v>
+        <v>5.292743188652439e-08</v>
       </c>
       <c r="D91" t="n">
-        <v>0.9999965581272156</v>
+        <v>0.9999999470725681</v>
       </c>
       <c r="E91" t="inlineStr">
+        <is>
+          <t>o__Bacteroidales</t>
+        </is>
+      </c>
+      <c r="F91" t="inlineStr">
         <is>
           <t>o__Bacteroidales</t>
         </is>
@@ -2358,15 +2813,20 @@
         </is>
       </c>
       <c r="B92" t="n">
-        <v>0.999999397068711</v>
+        <v>0.9999999177659856</v>
       </c>
       <c r="C92" t="n">
-        <v>6.029312890057431e-07</v>
+        <v>8.223401435791799e-08</v>
       </c>
       <c r="D92" t="n">
-        <v>0.999999397068711</v>
+        <v>0.9999999177659856</v>
       </c>
       <c r="E92" t="inlineStr">
+        <is>
+          <t>o__Bacteroidales</t>
+        </is>
+      </c>
+      <c r="F92" t="inlineStr">
         <is>
           <t>o__Bacteroidales</t>
         </is>
@@ -2379,15 +2839,20 @@
         </is>
       </c>
       <c r="B93" t="n">
-        <v>0.9999999776233449</v>
+        <v>0.999999984380137</v>
       </c>
       <c r="C93" t="n">
-        <v>2.237665504779144e-08</v>
+        <v>1.561986292838775e-08</v>
       </c>
       <c r="D93" t="n">
-        <v>0.9999999776233449</v>
+        <v>0.999999984380137</v>
       </c>
       <c r="E93" t="inlineStr">
+        <is>
+          <t>o__Bacteroidales</t>
+        </is>
+      </c>
+      <c r="F93" t="inlineStr">
         <is>
           <t>o__Bacteroidales</t>
         </is>
@@ -2400,15 +2865,20 @@
         </is>
       </c>
       <c r="B94" t="n">
-        <v>0.9999999748297006</v>
+        <v>0.9999999887644534</v>
       </c>
       <c r="C94" t="n">
-        <v>2.517029942784122e-08</v>
+        <v>1.123554657736323e-08</v>
       </c>
       <c r="D94" t="n">
-        <v>0.9999999748297006</v>
+        <v>0.9999999887644534</v>
       </c>
       <c r="E94" t="inlineStr">
+        <is>
+          <t>o__Bacteroidales</t>
+        </is>
+      </c>
+      <c r="F94" t="inlineStr">
         <is>
           <t>o__Bacteroidales</t>
         </is>
@@ -2421,15 +2891,20 @@
         </is>
       </c>
       <c r="B95" t="n">
-        <v>0.9998341664528435</v>
+        <v>0.9999990487577505</v>
       </c>
       <c r="C95" t="n">
-        <v>0.0001658335471565039</v>
+        <v>9.512422495221044e-07</v>
       </c>
       <c r="D95" t="n">
-        <v>0.9998341664528435</v>
+        <v>0.9999990487577505</v>
       </c>
       <c r="E95" t="inlineStr">
+        <is>
+          <t>o__Bacteroidales</t>
+        </is>
+      </c>
+      <c r="F95" t="inlineStr">
         <is>
           <t>o__Bacteroidales</t>
         </is>
@@ -2442,15 +2917,20 @@
         </is>
       </c>
       <c r="B96" t="n">
-        <v>0.9999318484378197</v>
+        <v>0.9999980486550517</v>
       </c>
       <c r="C96" t="n">
-        <v>6.815156218028627e-05</v>
+        <v>1.951344948243653e-06</v>
       </c>
       <c r="D96" t="n">
-        <v>0.9999318484378197</v>
+        <v>0.9999980486550517</v>
       </c>
       <c r="E96" t="inlineStr">
+        <is>
+          <t>o__Bacteroidales</t>
+        </is>
+      </c>
+      <c r="F96" t="inlineStr">
         <is>
           <t>o__Bacteroidales</t>
         </is>
@@ -2463,15 +2943,20 @@
         </is>
       </c>
       <c r="B97" t="n">
-        <v>0.9999999917432146</v>
+        <v>0.9999999818425176</v>
       </c>
       <c r="C97" t="n">
-        <v>8.256785392670361e-09</v>
+        <v>1.815748243518028e-08</v>
       </c>
       <c r="D97" t="n">
-        <v>0.9999999917432146</v>
+        <v>0.9999999818425176</v>
       </c>
       <c r="E97" t="inlineStr">
+        <is>
+          <t>o__Bacteroidales</t>
+        </is>
+      </c>
+      <c r="F97" t="inlineStr">
         <is>
           <t>o__Bacteroidales</t>
         </is>
@@ -2484,15 +2969,20 @@
         </is>
       </c>
       <c r="B98" t="n">
-        <v>0.9999977617165351</v>
+        <v>0.9999999304807669</v>
       </c>
       <c r="C98" t="n">
-        <v>2.238283464901375e-06</v>
+        <v>6.951923314888376e-08</v>
       </c>
       <c r="D98" t="n">
-        <v>0.9999977617165351</v>
+        <v>0.9999999304807669</v>
       </c>
       <c r="E98" t="inlineStr">
+        <is>
+          <t>o__Bacteroidales</t>
+        </is>
+      </c>
+      <c r="F98" t="inlineStr">
         <is>
           <t>o__Bacteroidales</t>
         </is>
@@ -2505,15 +2995,20 @@
         </is>
       </c>
       <c r="B99" t="n">
-        <v>0.9999959055160058</v>
+        <v>0.9999999313392248</v>
       </c>
       <c r="C99" t="n">
-        <v>4.094483994158193e-06</v>
+        <v>6.86607751999815e-08</v>
       </c>
       <c r="D99" t="n">
-        <v>0.9999959055160058</v>
+        <v>0.9999999313392248</v>
       </c>
       <c r="E99" t="inlineStr">
+        <is>
+          <t>o__Bacteroidales</t>
+        </is>
+      </c>
+      <c r="F99" t="inlineStr">
         <is>
           <t>o__Bacteroidales</t>
         </is>
@@ -2526,15 +3021,20 @@
         </is>
       </c>
       <c r="B100" t="n">
-        <v>0.9999996112516771</v>
+        <v>0.9999999209521723</v>
       </c>
       <c r="C100" t="n">
-        <v>3.887483228946092e-07</v>
+        <v>7.904782773611605e-08</v>
       </c>
       <c r="D100" t="n">
-        <v>0.9999996112516771</v>
+        <v>0.9999999209521723</v>
       </c>
       <c r="E100" t="inlineStr">
+        <is>
+          <t>o__Bacteroidales</t>
+        </is>
+      </c>
+      <c r="F100" t="inlineStr">
         <is>
           <t>o__Bacteroidales</t>
         </is>
@@ -2547,15 +3047,20 @@
         </is>
       </c>
       <c r="B101" t="n">
-        <v>0.9999995342326862</v>
+        <v>0.9999999731021839</v>
       </c>
       <c r="C101" t="n">
-        <v>4.65767313865641e-07</v>
+        <v>2.689781603859202e-08</v>
       </c>
       <c r="D101" t="n">
-        <v>0.9999995342326862</v>
+        <v>0.9999999731021839</v>
       </c>
       <c r="E101" t="inlineStr">
+        <is>
+          <t>o__Bacteroidales</t>
+        </is>
+      </c>
+      <c r="F101" t="inlineStr">
         <is>
           <t>o__Bacteroidales</t>
         </is>
@@ -2568,15 +3073,20 @@
         </is>
       </c>
       <c r="B102" t="n">
-        <v>0.9999987864677858</v>
+        <v>0.9999999501711387</v>
       </c>
       <c r="C102" t="n">
-        <v>1.213532214113979e-06</v>
+        <v>4.982886125857206e-08</v>
       </c>
       <c r="D102" t="n">
-        <v>0.9999987864677858</v>
+        <v>0.9999999501711387</v>
       </c>
       <c r="E102" t="inlineStr">
+        <is>
+          <t>o__Bacteroidales</t>
+        </is>
+      </c>
+      <c r="F102" t="inlineStr">
         <is>
           <t>o__Bacteroidales</t>
         </is>
@@ -2589,15 +3099,20 @@
         </is>
       </c>
       <c r="B103" t="n">
-        <v>0.9999871123473508</v>
+        <v>0.9999998745476095</v>
       </c>
       <c r="C103" t="n">
-        <v>1.288765264916702e-05</v>
+        <v>1.254523904815272e-07</v>
       </c>
       <c r="D103" t="n">
-        <v>0.9999871123473508</v>
+        <v>0.9999998745476095</v>
       </c>
       <c r="E103" t="inlineStr">
+        <is>
+          <t>o__Bacteroidales</t>
+        </is>
+      </c>
+      <c r="F103" t="inlineStr">
         <is>
           <t>o__Bacteroidales</t>
         </is>
@@ -2610,15 +3125,20 @@
         </is>
       </c>
       <c r="B104" t="n">
-        <v>0.9999996686703804</v>
+        <v>0.999999963142547</v>
       </c>
       <c r="C104" t="n">
-        <v>3.313296196374384e-07</v>
+        <v>3.685745301812551e-08</v>
       </c>
       <c r="D104" t="n">
-        <v>0.9999996686703804</v>
+        <v>0.999999963142547</v>
       </c>
       <c r="E104" t="inlineStr">
+        <is>
+          <t>o__Bacteroidales</t>
+        </is>
+      </c>
+      <c r="F104" t="inlineStr">
         <is>
           <t>o__Bacteroidales</t>
         </is>
@@ -2631,15 +3151,20 @@
         </is>
       </c>
       <c r="B105" t="n">
-        <v>0.9999993938212398</v>
+        <v>0.9999999146647962</v>
       </c>
       <c r="C105" t="n">
-        <v>6.061787601488396e-07</v>
+        <v>8.533520378838156e-08</v>
       </c>
       <c r="D105" t="n">
-        <v>0.9999993938212398</v>
+        <v>0.9999999146647962</v>
       </c>
       <c r="E105" t="inlineStr">
+        <is>
+          <t>o__Bacteroidales</t>
+        </is>
+      </c>
+      <c r="F105" t="inlineStr">
         <is>
           <t>o__Bacteroidales</t>
         </is>
@@ -2652,15 +3177,20 @@
         </is>
       </c>
       <c r="B106" t="n">
-        <v>0.9999998131328658</v>
+        <v>0.9999995122879596</v>
       </c>
       <c r="C106" t="n">
-        <v>1.868671342438882e-07</v>
+        <v>4.877120404249047e-07</v>
       </c>
       <c r="D106" t="n">
-        <v>0.9999998131328658</v>
+        <v>0.9999995122879596</v>
       </c>
       <c r="E106" t="inlineStr">
+        <is>
+          <t>o__Bacteroidales</t>
+        </is>
+      </c>
+      <c r="F106" t="inlineStr">
         <is>
           <t>o__Bacteroidales</t>
         </is>
@@ -2673,15 +3203,20 @@
         </is>
       </c>
       <c r="B107" t="n">
-        <v>0.9999998895893953</v>
+        <v>0.9999999226799443</v>
       </c>
       <c r="C107" t="n">
-        <v>1.104106046338463e-07</v>
+        <v>7.732005571505023e-08</v>
       </c>
       <c r="D107" t="n">
-        <v>0.9999998895893953</v>
+        <v>0.9999999226799443</v>
       </c>
       <c r="E107" t="inlineStr">
+        <is>
+          <t>o__Bacteroidales</t>
+        </is>
+      </c>
+      <c r="F107" t="inlineStr">
         <is>
           <t>o__Bacteroidales</t>
         </is>
@@ -2694,15 +3229,20 @@
         </is>
       </c>
       <c r="B108" t="n">
-        <v>0.9999999840667196</v>
+        <v>0.9999986612074178</v>
       </c>
       <c r="C108" t="n">
-        <v>1.593328033055354e-08</v>
+        <v>1.33879258219473e-06</v>
       </c>
       <c r="D108" t="n">
-        <v>0.9999999840667196</v>
+        <v>0.9999986612074178</v>
       </c>
       <c r="E108" t="inlineStr">
+        <is>
+          <t>o__Bacteroidales</t>
+        </is>
+      </c>
+      <c r="F108" t="inlineStr">
         <is>
           <t>o__Bacteroidales</t>
         </is>
@@ -2715,15 +3255,20 @@
         </is>
       </c>
       <c r="B109" t="n">
-        <v>0.9999718168949298</v>
+        <v>0.9999996429617047</v>
       </c>
       <c r="C109" t="n">
-        <v>2.818310507028238e-05</v>
+        <v>3.570382952233898e-07</v>
       </c>
       <c r="D109" t="n">
-        <v>0.9999718168949298</v>
+        <v>0.9999996429617047</v>
       </c>
       <c r="E109" t="inlineStr">
+        <is>
+          <t>o__Bacteroidales</t>
+        </is>
+      </c>
+      <c r="F109" t="inlineStr">
         <is>
           <t>o__Bacteroidales</t>
         </is>
@@ -2736,15 +3281,20 @@
         </is>
       </c>
       <c r="B110" t="n">
-        <v>0.999996229782531</v>
+        <v>0.9999999414323212</v>
       </c>
       <c r="C110" t="n">
-        <v>3.770217468984862e-06</v>
+        <v>5.85676787856504e-08</v>
       </c>
       <c r="D110" t="n">
-        <v>0.999996229782531</v>
+        <v>0.9999999414323212</v>
       </c>
       <c r="E110" t="inlineStr">
+        <is>
+          <t>o__Bacteroidales</t>
+        </is>
+      </c>
+      <c r="F110" t="inlineStr">
         <is>
           <t>o__Bacteroidales</t>
         </is>
@@ -2757,15 +3307,20 @@
         </is>
       </c>
       <c r="B111" t="n">
-        <v>0.9999962053494927</v>
+        <v>0.9999906061815741</v>
       </c>
       <c r="C111" t="n">
-        <v>3.794650507205918e-06</v>
+        <v>9.39381842586614e-06</v>
       </c>
       <c r="D111" t="n">
-        <v>0.9999962053494927</v>
+        <v>0.9999906061815741</v>
       </c>
       <c r="E111" t="inlineStr">
+        <is>
+          <t>o__Bacteroidales</t>
+        </is>
+      </c>
+      <c r="F111" t="inlineStr">
         <is>
           <t>o__Bacteroidales</t>
         </is>
@@ -2778,15 +3333,20 @@
         </is>
       </c>
       <c r="B112" t="n">
-        <v>0.9999995496691219</v>
+        <v>0.9999998780125786</v>
       </c>
       <c r="C112" t="n">
-        <v>4.503308781716297e-07</v>
+        <v>1.219874214245791e-07</v>
       </c>
       <c r="D112" t="n">
-        <v>0.9999995496691219</v>
+        <v>0.9999998780125786</v>
       </c>
       <c r="E112" t="inlineStr">
+        <is>
+          <t>o__Bacteroidales</t>
+        </is>
+      </c>
+      <c r="F112" t="inlineStr">
         <is>
           <t>o__Bacteroidales</t>
         </is>
@@ -2799,15 +3359,20 @@
         </is>
       </c>
       <c r="B113" t="n">
-        <v>0.9999977537074285</v>
+        <v>0.9999931016914103</v>
       </c>
       <c r="C113" t="n">
-        <v>2.246292571451551e-06</v>
+        <v>6.898308589632432e-06</v>
       </c>
       <c r="D113" t="n">
-        <v>0.9999977537074285</v>
+        <v>0.9999931016914103</v>
       </c>
       <c r="E113" t="inlineStr">
+        <is>
+          <t>o__Bacteroidales</t>
+        </is>
+      </c>
+      <c r="F113" t="inlineStr">
         <is>
           <t>o__Bacteroidales</t>
         </is>
@@ -2820,15 +3385,20 @@
         </is>
       </c>
       <c r="B114" t="n">
-        <v>0.9999995660699168</v>
+        <v>0.9999998280059901</v>
       </c>
       <c r="C114" t="n">
-        <v>4.339300832103973e-07</v>
+        <v>1.719940099160562e-07</v>
       </c>
       <c r="D114" t="n">
-        <v>0.9999995660699168</v>
+        <v>0.9999998280059901</v>
       </c>
       <c r="E114" t="inlineStr">
+        <is>
+          <t>o__Bacteroidales</t>
+        </is>
+      </c>
+      <c r="F114" t="inlineStr">
         <is>
           <t>o__Bacteroidales</t>
         </is>
@@ -2841,15 +3411,20 @@
         </is>
       </c>
       <c r="B115" t="n">
-        <v>0.9999986108877399</v>
+        <v>0.999999923743693</v>
       </c>
       <c r="C115" t="n">
-        <v>1.389112260139449e-06</v>
+        <v>7.625630701480373e-08</v>
       </c>
       <c r="D115" t="n">
-        <v>0.9999986108877399</v>
+        <v>0.999999923743693</v>
       </c>
       <c r="E115" t="inlineStr">
+        <is>
+          <t>o__Bacteroidales</t>
+        </is>
+      </c>
+      <c r="F115" t="inlineStr">
         <is>
           <t>o__Bacteroidales</t>
         </is>
@@ -2862,15 +3437,20 @@
         </is>
       </c>
       <c r="B116" t="n">
-        <v>0.9999284047004169</v>
+        <v>0.9999999506384282</v>
       </c>
       <c r="C116" t="n">
-        <v>7.159529958309457e-05</v>
+        <v>4.936157181490786e-08</v>
       </c>
       <c r="D116" t="n">
-        <v>0.9999284047004169</v>
+        <v>0.9999999506384282</v>
       </c>
       <c r="E116" t="inlineStr">
+        <is>
+          <t>o__Bacteroidales</t>
+        </is>
+      </c>
+      <c r="F116" t="inlineStr">
         <is>
           <t>o__Bacteroidales</t>
         </is>
@@ -2883,15 +3463,20 @@
         </is>
       </c>
       <c r="B117" t="n">
-        <v>0.9999962870071931</v>
+        <v>0.9999999538007663</v>
       </c>
       <c r="C117" t="n">
-        <v>3.712992806851265e-06</v>
+        <v>4.619923365775804e-08</v>
       </c>
       <c r="D117" t="n">
-        <v>0.9999962870071931</v>
+        <v>0.9999999538007663</v>
       </c>
       <c r="E117" t="inlineStr">
+        <is>
+          <t>o__Bacteroidales</t>
+        </is>
+      </c>
+      <c r="F117" t="inlineStr">
         <is>
           <t>o__Bacteroidales</t>
         </is>
@@ -2904,15 +3489,20 @@
         </is>
       </c>
       <c r="B118" t="n">
-        <v>0.9999944825825902</v>
+        <v>0.9999999298996742</v>
       </c>
       <c r="C118" t="n">
-        <v>5.517417409838368e-06</v>
+        <v>7.010032579495311e-08</v>
       </c>
       <c r="D118" t="n">
-        <v>0.9999944825825902</v>
+        <v>0.9999999298996742</v>
       </c>
       <c r="E118" t="inlineStr">
+        <is>
+          <t>o__Bacteroidales</t>
+        </is>
+      </c>
+      <c r="F118" t="inlineStr">
         <is>
           <t>o__Bacteroidales</t>
         </is>
@@ -2925,15 +3515,20 @@
         </is>
       </c>
       <c r="B119" t="n">
-        <v>0.9999999999999778</v>
+        <v>0.9999999999995997</v>
       </c>
       <c r="C119" t="n">
-        <v>2.220446049250264e-14</v>
+        <v>4.003477778310375e-13</v>
       </c>
       <c r="D119" t="n">
-        <v>0.9999999999999778</v>
+        <v>0.9999999999995997</v>
       </c>
       <c r="E119" t="inlineStr">
+        <is>
+          <t>o__Bacteroidales</t>
+        </is>
+      </c>
+      <c r="F119" t="inlineStr">
         <is>
           <t>o__Bacteroidales</t>
         </is>
@@ -2946,15 +3541,20 @@
         </is>
       </c>
       <c r="B120" t="n">
-        <v>0.9999998290342635</v>
+        <v>0.9999961423614653</v>
       </c>
       <c r="C120" t="n">
-        <v>1.709657364024405e-07</v>
+        <v>3.857638534752967e-06</v>
       </c>
       <c r="D120" t="n">
-        <v>0.9999998290342635</v>
+        <v>0.9999961423614653</v>
       </c>
       <c r="E120" t="inlineStr">
+        <is>
+          <t>o__Bacteroidales</t>
+        </is>
+      </c>
+      <c r="F120" t="inlineStr">
         <is>
           <t>o__Bacteroidales</t>
         </is>
@@ -2967,15 +3567,20 @@
         </is>
       </c>
       <c r="B121" t="n">
-        <v>0.9999999303647124</v>
+        <v>0.9999999475229255</v>
       </c>
       <c r="C121" t="n">
-        <v>6.963528766957818e-08</v>
+        <v>5.247707441274204e-08</v>
       </c>
       <c r="D121" t="n">
-        <v>0.9999999303647124</v>
+        <v>0.9999999475229255</v>
       </c>
       <c r="E121" t="inlineStr">
+        <is>
+          <t>o__Bacteroidales</t>
+        </is>
+      </c>
+      <c r="F121" t="inlineStr">
         <is>
           <t>o__Bacteroidales</t>
         </is>
@@ -2988,15 +3593,20 @@
         </is>
       </c>
       <c r="B122" t="n">
-        <v>0.9999998401543015</v>
+        <v>0.9999984035797335</v>
       </c>
       <c r="C122" t="n">
-        <v>1.598456984335827e-07</v>
+        <v>1.596420266484516e-06</v>
       </c>
       <c r="D122" t="n">
-        <v>0.9999998401543015</v>
+        <v>0.9999984035797335</v>
       </c>
       <c r="E122" t="inlineStr">
+        <is>
+          <t>o__Bacteroidales</t>
+        </is>
+      </c>
+      <c r="F122" t="inlineStr">
         <is>
           <t>o__Bacteroidales</t>
         </is>
@@ -3009,15 +3619,20 @@
         </is>
       </c>
       <c r="B123" t="n">
-        <v>0.9999991154310512</v>
+        <v>0.9999999069106105</v>
       </c>
       <c r="C123" t="n">
-        <v>8.845689487598606e-07</v>
+        <v>9.308938955029799e-08</v>
       </c>
       <c r="D123" t="n">
-        <v>0.9999991154310512</v>
+        <v>0.9999999069106105</v>
       </c>
       <c r="E123" t="inlineStr">
+        <is>
+          <t>o__Bacteroidales</t>
+        </is>
+      </c>
+      <c r="F123" t="inlineStr">
         <is>
           <t>o__Bacteroidales</t>
         </is>
@@ -3030,15 +3645,20 @@
         </is>
       </c>
       <c r="B124" t="n">
-        <v>0.9999993942065425</v>
+        <v>0.9999999092080011</v>
       </c>
       <c r="C124" t="n">
-        <v>6.057934574577806e-07</v>
+        <v>9.079199893680259e-08</v>
       </c>
       <c r="D124" t="n">
-        <v>0.9999993942065425</v>
+        <v>0.9999999092080011</v>
       </c>
       <c r="E124" t="inlineStr">
+        <is>
+          <t>o__Bacteroidales</t>
+        </is>
+      </c>
+      <c r="F124" t="inlineStr">
         <is>
           <t>o__Bacteroidales</t>
         </is>
@@ -3051,15 +3671,20 @@
         </is>
       </c>
       <c r="B125" t="n">
-        <v>0.999999988321411</v>
+        <v>0.9999986282740174</v>
       </c>
       <c r="C125" t="n">
-        <v>1.167858903400911e-08</v>
+        <v>1.371725982626992e-06</v>
       </c>
       <c r="D125" t="n">
-        <v>0.999999988321411</v>
+        <v>0.9999986282740174</v>
       </c>
       <c r="E125" t="inlineStr">
+        <is>
+          <t>o__Bacteroidales</t>
+        </is>
+      </c>
+      <c r="F125" t="inlineStr">
         <is>
           <t>o__Bacteroidales</t>
         </is>
@@ -3072,15 +3697,20 @@
         </is>
       </c>
       <c r="B126" t="n">
-        <v>0.9999999698041777</v>
+        <v>0.999997302795814</v>
       </c>
       <c r="C126" t="n">
-        <v>3.019582228911811e-08</v>
+        <v>2.697204185986261e-06</v>
       </c>
       <c r="D126" t="n">
-        <v>0.9999999698041777</v>
+        <v>0.999997302795814</v>
       </c>
       <c r="E126" t="inlineStr">
+        <is>
+          <t>o__Bacteroidales</t>
+        </is>
+      </c>
+      <c r="F126" t="inlineStr">
         <is>
           <t>o__Bacteroidales</t>
         </is>
@@ -3093,15 +3723,20 @@
         </is>
       </c>
       <c r="B127" t="n">
-        <v>0.9999999825504858</v>
+        <v>0.9999999442002231</v>
       </c>
       <c r="C127" t="n">
-        <v>1.744951412195484e-08</v>
+        <v>5.579977691260368e-08</v>
       </c>
       <c r="D127" t="n">
-        <v>0.9999999825504858</v>
+        <v>0.9999999442002231</v>
       </c>
       <c r="E127" t="inlineStr">
+        <is>
+          <t>o__Bacteroidales</t>
+        </is>
+      </c>
+      <c r="F127" t="inlineStr">
         <is>
           <t>o__Bacteroidales</t>
         </is>
@@ -3114,15 +3749,20 @@
         </is>
       </c>
       <c r="B128" t="n">
-        <v>0.9999998691891078</v>
+        <v>0.9999974899099533</v>
       </c>
       <c r="C128" t="n">
-        <v>1.30810892260088e-07</v>
+        <v>2.510090046754945e-06</v>
       </c>
       <c r="D128" t="n">
-        <v>0.9999998691891078</v>
+        <v>0.9999974899099533</v>
       </c>
       <c r="E128" t="inlineStr">
+        <is>
+          <t>o__Bacteroidales</t>
+        </is>
+      </c>
+      <c r="F128" t="inlineStr">
         <is>
           <t>o__Bacteroidales</t>
         </is>
@@ -3135,15 +3775,20 @@
         </is>
       </c>
       <c r="B129" t="n">
-        <v>0.9999999383064313</v>
+        <v>0.9999999921117764</v>
       </c>
       <c r="C129" t="n">
-        <v>6.16935686635077e-08</v>
+        <v>7.888223640159855e-09</v>
       </c>
       <c r="D129" t="n">
-        <v>0.9999999383064313</v>
+        <v>0.9999999921117764</v>
       </c>
       <c r="E129" t="inlineStr">
+        <is>
+          <t>o__Bacteroidales</t>
+        </is>
+      </c>
+      <c r="F129" t="inlineStr">
         <is>
           <t>o__Bacteroidales</t>
         </is>
@@ -3156,15 +3801,20 @@
         </is>
       </c>
       <c r="B130" t="n">
-        <v>0.9992985824585089</v>
+        <v>0.9999965791809533</v>
       </c>
       <c r="C130" t="n">
-        <v>0.000701417541491104</v>
+        <v>3.420819046748232e-06</v>
       </c>
       <c r="D130" t="n">
-        <v>0.9992985824585089</v>
+        <v>0.9999965791809533</v>
       </c>
       <c r="E130" t="inlineStr">
+        <is>
+          <t>o__Bacteroidales</t>
+        </is>
+      </c>
+      <c r="F130" t="inlineStr">
         <is>
           <t>o__Bacteroidales</t>
         </is>
@@ -3177,15 +3827,20 @@
         </is>
       </c>
       <c r="B131" t="n">
-        <v>0.9999999935352482</v>
+        <v>0.9999998459727224</v>
       </c>
       <c r="C131" t="n">
-        <v>6.464751867892583e-09</v>
+        <v>1.540272775622827e-07</v>
       </c>
       <c r="D131" t="n">
-        <v>0.9999999935352482</v>
+        <v>0.9999998459727224</v>
       </c>
       <c r="E131" t="inlineStr">
+        <is>
+          <t>o__Bacteroidales</t>
+        </is>
+      </c>
+      <c r="F131" t="inlineStr">
         <is>
           <t>o__Bacteroidales</t>
         </is>
@@ -3198,15 +3853,20 @@
         </is>
       </c>
       <c r="B132" t="n">
-        <v>0.9999979968300025</v>
+        <v>0.9999999195701106</v>
       </c>
       <c r="C132" t="n">
-        <v>2.00316999752328e-06</v>
+        <v>8.042988939758368e-08</v>
       </c>
       <c r="D132" t="n">
-        <v>0.9999979968300025</v>
+        <v>0.9999999195701106</v>
       </c>
       <c r="E132" t="inlineStr">
+        <is>
+          <t>o__Bacteroidales</t>
+        </is>
+      </c>
+      <c r="F132" t="inlineStr">
         <is>
           <t>o__Bacteroidales</t>
         </is>
@@ -3219,15 +3879,20 @@
         </is>
       </c>
       <c r="B133" t="n">
-        <v>0.9997227035076285</v>
+        <v>0.9999879637519938</v>
       </c>
       <c r="C133" t="n">
-        <v>0.0002772964923715506</v>
+        <v>1.203624800614497e-05</v>
       </c>
       <c r="D133" t="n">
-        <v>0.9997227035076285</v>
+        <v>0.9999879637519938</v>
       </c>
       <c r="E133" t="inlineStr">
+        <is>
+          <t>o__Bacteroidales</t>
+        </is>
+      </c>
+      <c r="F133" t="inlineStr">
         <is>
           <t>o__Bacteroidales</t>
         </is>
@@ -3240,15 +3905,20 @@
         </is>
       </c>
       <c r="B134" t="n">
-        <v>0.9999993567639179</v>
+        <v>0.9999999799384764</v>
       </c>
       <c r="C134" t="n">
-        <v>6.43236082018198e-07</v>
+        <v>2.00615235233044e-08</v>
       </c>
       <c r="D134" t="n">
-        <v>0.9999993567639179</v>
+        <v>0.9999999799384764</v>
       </c>
       <c r="E134" t="inlineStr">
+        <is>
+          <t>o__Bacteroidales</t>
+        </is>
+      </c>
+      <c r="F134" t="inlineStr">
         <is>
           <t>o__Bacteroidales</t>
         </is>
@@ -3261,15 +3931,20 @@
         </is>
       </c>
       <c r="B135" t="n">
-        <v>0.9999802558951609</v>
+        <v>0.9999997573701676</v>
       </c>
       <c r="C135" t="n">
-        <v>1.974410483905387e-05</v>
+        <v>2.426298324108298e-07</v>
       </c>
       <c r="D135" t="n">
-        <v>0.9999802558951609</v>
+        <v>0.9999997573701676</v>
       </c>
       <c r="E135" t="inlineStr">
+        <is>
+          <t>o__Bacteroidales</t>
+        </is>
+      </c>
+      <c r="F135" t="inlineStr">
         <is>
           <t>o__Bacteroidales</t>
         </is>
@@ -3282,15 +3957,20 @@
         </is>
       </c>
       <c r="B136" t="n">
-        <v>0.9999996956372377</v>
+        <v>0.9999995148569744</v>
       </c>
       <c r="C136" t="n">
-        <v>3.043627622735305e-07</v>
+        <v>4.851430256525756e-07</v>
       </c>
       <c r="D136" t="n">
-        <v>0.9999996956372377</v>
+        <v>0.9999995148569744</v>
       </c>
       <c r="E136" t="inlineStr">
+        <is>
+          <t>o__Bacteroidales</t>
+        </is>
+      </c>
+      <c r="F136" t="inlineStr">
         <is>
           <t>o__Bacteroidales</t>
         </is>
@@ -3303,15 +3983,20 @@
         </is>
       </c>
       <c r="B137" t="n">
-        <v>0.9999999069135455</v>
+        <v>0.9999999625452503</v>
       </c>
       <c r="C137" t="n">
-        <v>9.308645450076953e-08</v>
+        <v>3.745474971454884e-08</v>
       </c>
       <c r="D137" t="n">
-        <v>0.9999999069135455</v>
+        <v>0.9999999625452503</v>
       </c>
       <c r="E137" t="inlineStr">
+        <is>
+          <t>o__Bacteroidales</t>
+        </is>
+      </c>
+      <c r="F137" t="inlineStr">
         <is>
           <t>o__Bacteroidales</t>
         </is>
@@ -3324,15 +4009,20 @@
         </is>
       </c>
       <c r="B138" t="n">
-        <v>0.9999998470958767</v>
+        <v>0.9999999621277773</v>
       </c>
       <c r="C138" t="n">
-        <v>1.529041232461767e-07</v>
+        <v>3.787222270916134e-08</v>
       </c>
       <c r="D138" t="n">
-        <v>0.9999998470958767</v>
+        <v>0.9999999621277773</v>
       </c>
       <c r="E138" t="inlineStr">
+        <is>
+          <t>o__Bacteroidales</t>
+        </is>
+      </c>
+      <c r="F138" t="inlineStr">
         <is>
           <t>o__Bacteroidales</t>
         </is>
@@ -3345,15 +4035,20 @@
         </is>
       </c>
       <c r="B139" t="n">
-        <v>0.9999766481142438</v>
+        <v>0.9999997100222061</v>
       </c>
       <c r="C139" t="n">
-        <v>2.335188575617523e-05</v>
+        <v>2.899777938764845e-07</v>
       </c>
       <c r="D139" t="n">
-        <v>0.9999766481142438</v>
+        <v>0.9999997100222061</v>
       </c>
       <c r="E139" t="inlineStr">
+        <is>
+          <t>o__Bacteroidales</t>
+        </is>
+      </c>
+      <c r="F139" t="inlineStr">
         <is>
           <t>o__Bacteroidales</t>
         </is>
@@ -3366,15 +4061,20 @@
         </is>
       </c>
       <c r="B140" t="n">
-        <v>0.9999988811580778</v>
+        <v>0.9999999579547137</v>
       </c>
       <c r="C140" t="n">
-        <v>1.118841922186273e-06</v>
+        <v>4.204528623415591e-08</v>
       </c>
       <c r="D140" t="n">
-        <v>0.9999988811580778</v>
+        <v>0.9999999579547137</v>
       </c>
       <c r="E140" t="inlineStr">
+        <is>
+          <t>o__Bacteroidales</t>
+        </is>
+      </c>
+      <c r="F140" t="inlineStr">
         <is>
           <t>o__Bacteroidales</t>
         </is>
@@ -3387,15 +4087,20 @@
         </is>
       </c>
       <c r="B141" t="n">
-        <v>0.9999999135985032</v>
+        <v>0.9999998534823317</v>
       </c>
       <c r="C141" t="n">
-        <v>8.640149688516438e-08</v>
+        <v>1.465176683556834e-07</v>
       </c>
       <c r="D141" t="n">
-        <v>0.9999999135985032</v>
+        <v>0.9999998534823317</v>
       </c>
       <c r="E141" t="inlineStr">
+        <is>
+          <t>o__Bacteroidales</t>
+        </is>
+      </c>
+      <c r="F141" t="inlineStr">
         <is>
           <t>o__Bacteroidales</t>
         </is>
@@ -3408,15 +4113,20 @@
         </is>
       </c>
       <c r="B142" t="n">
-        <v>0.9999993438499188</v>
+        <v>0.9999999178534975</v>
       </c>
       <c r="C142" t="n">
-        <v>6.561500811899396e-07</v>
+        <v>8.214650246308073e-08</v>
       </c>
       <c r="D142" t="n">
-        <v>0.9999993438499188</v>
+        <v>0.9999999178534975</v>
       </c>
       <c r="E142" t="inlineStr">
+        <is>
+          <t>o__Bacteroidales</t>
+        </is>
+      </c>
+      <c r="F142" t="inlineStr">
         <is>
           <t>o__Bacteroidales</t>
         </is>
@@ -3429,15 +4139,20 @@
         </is>
       </c>
       <c r="B143" t="n">
-        <v>0.9999993487784248</v>
+        <v>0.9999999671438847</v>
       </c>
       <c r="C143" t="n">
-        <v>6.512215751873959e-07</v>
+        <v>3.285611523259113e-08</v>
       </c>
       <c r="D143" t="n">
-        <v>0.9999993487784248</v>
+        <v>0.9999999671438847</v>
       </c>
       <c r="E143" t="inlineStr">
+        <is>
+          <t>o__Bacteroidales</t>
+        </is>
+      </c>
+      <c r="F143" t="inlineStr">
         <is>
           <t>o__Bacteroidales</t>
         </is>
@@ -3450,15 +4165,20 @@
         </is>
       </c>
       <c r="B144" t="n">
-        <v>0.9999883911497537</v>
+        <v>0.9999910521557078</v>
       </c>
       <c r="C144" t="n">
-        <v>1.16088502462675e-05</v>
+        <v>8.94784429214179e-06</v>
       </c>
       <c r="D144" t="n">
-        <v>0.9999883911497537</v>
+        <v>0.9999910521557078</v>
       </c>
       <c r="E144" t="inlineStr">
+        <is>
+          <t>o__Bacteroidales</t>
+        </is>
+      </c>
+      <c r="F144" t="inlineStr">
         <is>
           <t>o__Bacteroidales</t>
         </is>
@@ -3471,15 +4191,20 @@
         </is>
       </c>
       <c r="B145" t="n">
-        <v>0.999999999999335</v>
+        <v>0.999999999560501</v>
       </c>
       <c r="C145" t="n">
-        <v>6.649760242695006e-13</v>
+        <v>4.394990239020164e-10</v>
       </c>
       <c r="D145" t="n">
-        <v>0.999999999999335</v>
+        <v>0.999999999560501</v>
       </c>
       <c r="E145" t="inlineStr">
+        <is>
+          <t>o__Bacteroidales</t>
+        </is>
+      </c>
+      <c r="F145" t="inlineStr">
         <is>
           <t>o__Bacteroidales</t>
         </is>
@@ -3492,15 +4217,20 @@
         </is>
       </c>
       <c r="B146" t="n">
-        <v>0.9999999999950833</v>
+        <v>0.9999999987652821</v>
       </c>
       <c r="C146" t="n">
-        <v>4.916678931265939e-12</v>
+        <v>1.234717850200864e-09</v>
       </c>
       <c r="D146" t="n">
-        <v>0.9999999999950833</v>
+        <v>0.9999999987652821</v>
       </c>
       <c r="E146" t="inlineStr">
+        <is>
+          <t>o__Bacteroidales</t>
+        </is>
+      </c>
+      <c r="F146" t="inlineStr">
         <is>
           <t>o__Bacteroidales</t>
         </is>
@@ -3513,15 +4243,20 @@
         </is>
       </c>
       <c r="B147" t="n">
-        <v>0.9999999999995135</v>
+        <v>0.9999999991565663</v>
       </c>
       <c r="C147" t="n">
-        <v>4.864956537192274e-13</v>
+        <v>8.434336887375963e-10</v>
       </c>
       <c r="D147" t="n">
-        <v>0.9999999999995135</v>
+        <v>0.9999999991565663</v>
       </c>
       <c r="E147" t="inlineStr">
+        <is>
+          <t>o__Bacteroidales</t>
+        </is>
+      </c>
+      <c r="F147" t="inlineStr">
         <is>
           <t>o__Bacteroidales</t>
         </is>
@@ -3534,15 +4269,20 @@
         </is>
       </c>
       <c r="B148" t="n">
-        <v>0.9999999999968167</v>
+        <v>0.9999999978771926</v>
       </c>
       <c r="C148" t="n">
-        <v>3.183374864002908e-12</v>
+        <v>2.122807319137857e-09</v>
       </c>
       <c r="D148" t="n">
-        <v>0.9999999999968167</v>
+        <v>0.9999999978771926</v>
       </c>
       <c r="E148" t="inlineStr">
+        <is>
+          <t>o__Bacteroidales</t>
+        </is>
+      </c>
+      <c r="F148" t="inlineStr">
         <is>
           <t>o__Bacteroidales</t>
         </is>
@@ -3555,15 +4295,20 @@
         </is>
       </c>
       <c r="B149" t="n">
-        <v>0.9999999999992956</v>
+        <v>0.9999999994042628</v>
       </c>
       <c r="C149" t="n">
-        <v>7.04489348265375e-13</v>
+        <v>5.957372248136018e-10</v>
       </c>
       <c r="D149" t="n">
-        <v>0.9999999999992956</v>
+        <v>0.9999999994042628</v>
       </c>
       <c r="E149" t="inlineStr">
+        <is>
+          <t>o__Bacteroidales</t>
+        </is>
+      </c>
+      <c r="F149" t="inlineStr">
         <is>
           <t>o__Bacteroidales</t>
         </is>
@@ -3576,15 +4321,20 @@
         </is>
       </c>
       <c r="B150" t="n">
-        <v>0.9999999999994774</v>
+        <v>0.9999999994069281</v>
       </c>
       <c r="C150" t="n">
-        <v>5.226204267945544e-13</v>
+        <v>5.93071979271776e-10</v>
       </c>
       <c r="D150" t="n">
-        <v>0.9999999999994774</v>
+        <v>0.9999999994069281</v>
       </c>
       <c r="E150" t="inlineStr">
+        <is>
+          <t>o__Bacteroidales</t>
+        </is>
+      </c>
+      <c r="F150" t="inlineStr">
         <is>
           <t>o__Bacteroidales</t>
         </is>
@@ -3597,15 +4347,20 @@
         </is>
       </c>
       <c r="B151" t="n">
-        <v>0.9999999999970461</v>
+        <v>0.9999999988138485</v>
       </c>
       <c r="C151" t="n">
-        <v>2.953850921128471e-12</v>
+        <v>1.186151525640365e-09</v>
       </c>
       <c r="D151" t="n">
-        <v>0.9999999999970461</v>
+        <v>0.9999999988138485</v>
       </c>
       <c r="E151" t="inlineStr">
+        <is>
+          <t>o__Bacteroidales</t>
+        </is>
+      </c>
+      <c r="F151" t="inlineStr">
         <is>
           <t>o__Bacteroidales</t>
         </is>
@@ -3618,15 +4373,20 @@
         </is>
       </c>
       <c r="B152" t="n">
-        <v>0.9999999999982579</v>
+        <v>0.9999999991422167</v>
       </c>
       <c r="C152" t="n">
-        <v>1.742018636207405e-12</v>
+        <v>8.577832624222112e-10</v>
       </c>
       <c r="D152" t="n">
-        <v>0.9999999999982579</v>
+        <v>0.9999999991422167</v>
       </c>
       <c r="E152" t="inlineStr">
+        <is>
+          <t>o__Bacteroidales</t>
+        </is>
+      </c>
+      <c r="F152" t="inlineStr">
         <is>
           <t>o__Bacteroidales</t>
         </is>
@@ -3639,15 +4399,20 @@
         </is>
       </c>
       <c r="B153" t="n">
-        <v>0.9999988739121234</v>
+        <v>0.9999993201025267</v>
       </c>
       <c r="C153" t="n">
-        <v>1.126087876646807e-06</v>
+        <v>6.79897473376164e-07</v>
       </c>
       <c r="D153" t="n">
-        <v>0.9999988739121234</v>
+        <v>0.9999993201025267</v>
       </c>
       <c r="E153" t="inlineStr">
+        <is>
+          <t>o__Bacteroidales</t>
+        </is>
+      </c>
+      <c r="F153" t="inlineStr">
         <is>
           <t>o__Bacteroidales</t>
         </is>
@@ -3660,15 +4425,20 @@
         </is>
       </c>
       <c r="B154" t="n">
-        <v>0.9999992428493609</v>
+        <v>0.9999986460055466</v>
       </c>
       <c r="C154" t="n">
-        <v>7.571506391186567e-07</v>
+        <v>1.353994453439493e-06</v>
       </c>
       <c r="D154" t="n">
-        <v>0.9999992428493609</v>
+        <v>0.9999986460055466</v>
       </c>
       <c r="E154" t="inlineStr">
+        <is>
+          <t>o__Bacteroidales</t>
+        </is>
+      </c>
+      <c r="F154" t="inlineStr">
         <is>
           <t>o__Bacteroidales</t>
         </is>
@@ -3681,15 +4451,20 @@
         </is>
       </c>
       <c r="B155" t="n">
-        <v>0.9999834750582621</v>
+        <v>0.9999985906558418</v>
       </c>
       <c r="C155" t="n">
-        <v>1.652494173782904e-05</v>
+        <v>1.409344158182331e-06</v>
       </c>
       <c r="D155" t="n">
-        <v>0.9999834750582621</v>
+        <v>0.9999985906558418</v>
       </c>
       <c r="E155" t="inlineStr">
+        <is>
+          <t>o__Bacteroidales</t>
+        </is>
+      </c>
+      <c r="F155" t="inlineStr">
         <is>
           <t>o__Bacteroidales</t>
         </is>
@@ -3702,15 +4477,20 @@
         </is>
       </c>
       <c r="B156" t="n">
-        <v>0.9999999628268103</v>
+        <v>0.9999995429375784</v>
       </c>
       <c r="C156" t="n">
-        <v>3.71731897408029e-08</v>
+        <v>4.570624215574652e-07</v>
       </c>
       <c r="D156" t="n">
-        <v>0.9999999628268103</v>
+        <v>0.9999995429375784</v>
       </c>
       <c r="E156" t="inlineStr">
+        <is>
+          <t>o__Bacteroidales</t>
+        </is>
+      </c>
+      <c r="F156" t="inlineStr">
         <is>
           <t>o__Bacteroidales</t>
         </is>
@@ -3723,15 +4503,20 @@
         </is>
       </c>
       <c r="B157" t="n">
-        <v>0.9999999294058137</v>
+        <v>0.9999999968693686</v>
       </c>
       <c r="C157" t="n">
-        <v>7.059418626538325e-08</v>
+        <v>3.130631460624056e-09</v>
       </c>
       <c r="D157" t="n">
-        <v>0.9999999294058137</v>
+        <v>0.9999999968693686</v>
       </c>
       <c r="E157" t="inlineStr">
+        <is>
+          <t>o__Bacteroidales</t>
+        </is>
+      </c>
+      <c r="F157" t="inlineStr">
         <is>
           <t>o__Bacteroidales</t>
         </is>
@@ -3744,15 +4529,20 @@
         </is>
       </c>
       <c r="B158" t="n">
-        <v>0.9999992021197179</v>
+        <v>0.9999998698418519</v>
       </c>
       <c r="C158" t="n">
-        <v>7.978802820792696e-07</v>
+        <v>1.301581481336463e-07</v>
       </c>
       <c r="D158" t="n">
-        <v>0.9999992021197179</v>
+        <v>0.9999998698418519</v>
       </c>
       <c r="E158" t="inlineStr">
+        <is>
+          <t>o__Bacteroidales</t>
+        </is>
+      </c>
+      <c r="F158" t="inlineStr">
         <is>
           <t>o__Bacteroidales</t>
         </is>
@@ -3765,15 +4555,20 @@
         </is>
       </c>
       <c r="B159" t="n">
-        <v>0.9999828767904712</v>
+        <v>0.9999978307765013</v>
       </c>
       <c r="C159" t="n">
-        <v>1.712320952883954e-05</v>
+        <v>2.169223498701386e-06</v>
       </c>
       <c r="D159" t="n">
-        <v>0.9999828767904712</v>
+        <v>0.9999978307765013</v>
       </c>
       <c r="E159" t="inlineStr">
+        <is>
+          <t>o__Bacteroidales</t>
+        </is>
+      </c>
+      <c r="F159" t="inlineStr">
         <is>
           <t>o__Bacteroidales</t>
         </is>
@@ -3786,15 +4581,20 @@
         </is>
       </c>
       <c r="B160" t="n">
-        <v>0.999999430936901</v>
+        <v>0.9999998600105562</v>
       </c>
       <c r="C160" t="n">
-        <v>5.690630989800829e-07</v>
+        <v>1.399894438666554e-07</v>
       </c>
       <c r="D160" t="n">
-        <v>0.999999430936901</v>
+        <v>0.9999998600105562</v>
       </c>
       <c r="E160" t="inlineStr">
+        <is>
+          <t>o__Bacteroidales</t>
+        </is>
+      </c>
+      <c r="F160" t="inlineStr">
         <is>
           <t>o__Bacteroidales</t>
         </is>
@@ -3807,15 +4607,20 @@
         </is>
       </c>
       <c r="B161" t="n">
-        <v>0.9999421132600573</v>
+        <v>0.9999996514846151</v>
       </c>
       <c r="C161" t="n">
-        <v>5.78867399426181e-05</v>
+        <v>3.485153848535606e-07</v>
       </c>
       <c r="D161" t="n">
-        <v>0.9999421132600573</v>
+        <v>0.9999996514846151</v>
       </c>
       <c r="E161" t="inlineStr">
+        <is>
+          <t>o__Bacteroidales</t>
+        </is>
+      </c>
+      <c r="F161" t="inlineStr">
         <is>
           <t>o__Bacteroidales</t>
         </is>
@@ -3828,15 +4633,20 @@
         </is>
       </c>
       <c r="B162" t="n">
-        <v>0.9999999627599164</v>
+        <v>0.9999998837699967</v>
       </c>
       <c r="C162" t="n">
-        <v>3.724008353673899e-08</v>
+        <v>1.162300033262408e-07</v>
       </c>
       <c r="D162" t="n">
-        <v>0.9999999627599164</v>
+        <v>0.9999998837699967</v>
       </c>
       <c r="E162" t="inlineStr">
+        <is>
+          <t>o__Bacteroidales</t>
+        </is>
+      </c>
+      <c r="F162" t="inlineStr">
         <is>
           <t>o__Bacteroidales</t>
         </is>
@@ -3849,15 +4659,20 @@
         </is>
       </c>
       <c r="B163" t="n">
-        <v>0.9999765620324443</v>
+        <v>0.9999599678818557</v>
       </c>
       <c r="C163" t="n">
-        <v>2.343796755569249e-05</v>
+        <v>4.003211814431237e-05</v>
       </c>
       <c r="D163" t="n">
-        <v>0.9999765620324443</v>
+        <v>0.9999599678818557</v>
       </c>
       <c r="E163" t="inlineStr">
+        <is>
+          <t>o__Bacteroidales</t>
+        </is>
+      </c>
+      <c r="F163" t="inlineStr">
         <is>
           <t>o__Bacteroidales</t>
         </is>
@@ -3870,15 +4685,20 @@
         </is>
       </c>
       <c r="B164" t="n">
-        <v>0.9999513779256972</v>
+        <v>0.9998687825975837</v>
       </c>
       <c r="C164" t="n">
-        <v>4.862207430275021e-05</v>
+        <v>0.0001312174024162953</v>
       </c>
       <c r="D164" t="n">
-        <v>0.9999513779256972</v>
+        <v>0.9998687825975837</v>
       </c>
       <c r="E164" t="inlineStr">
+        <is>
+          <t>o__Bacteroidales</t>
+        </is>
+      </c>
+      <c r="F164" t="inlineStr">
         <is>
           <t>o__Bacteroidales</t>
         </is>
@@ -3891,15 +4711,20 @@
         </is>
       </c>
       <c r="B165" t="n">
-        <v>0.9999991645681678</v>
+        <v>0.9999607036255855</v>
       </c>
       <c r="C165" t="n">
-        <v>8.354318321288679e-07</v>
+        <v>3.92963744145044e-05</v>
       </c>
       <c r="D165" t="n">
-        <v>0.9999991645681678</v>
+        <v>0.9999607036255855</v>
       </c>
       <c r="E165" t="inlineStr">
+        <is>
+          <t>o__Bacteroidales</t>
+        </is>
+      </c>
+      <c r="F165" t="inlineStr">
         <is>
           <t>o__Bacteroidales</t>
         </is>
@@ -3912,15 +4737,20 @@
         </is>
       </c>
       <c r="B166" t="n">
-        <v>0.9999929685301137</v>
+        <v>0.9999998526794307</v>
       </c>
       <c r="C166" t="n">
-        <v>7.031469886327445e-06</v>
+        <v>1.473205693531069e-07</v>
       </c>
       <c r="D166" t="n">
-        <v>0.9999929685301137</v>
+        <v>0.9999998526794307</v>
       </c>
       <c r="E166" t="inlineStr">
+        <is>
+          <t>o__Bacteroidales</t>
+        </is>
+      </c>
+      <c r="F166" t="inlineStr">
         <is>
           <t>o__Bacteroidales</t>
         </is>
@@ -3933,15 +4763,20 @@
         </is>
       </c>
       <c r="B167" t="n">
-        <v>0.9999999124662837</v>
+        <v>0.9999999874957829</v>
       </c>
       <c r="C167" t="n">
-        <v>8.753371624305164e-08</v>
+        <v>1.250421710635095e-08</v>
       </c>
       <c r="D167" t="n">
-        <v>0.9999999124662837</v>
+        <v>0.9999999874957829</v>
       </c>
       <c r="E167" t="inlineStr">
+        <is>
+          <t>o__Bacteroidales</t>
+        </is>
+      </c>
+      <c r="F167" t="inlineStr">
         <is>
           <t>o__Bacteroidales</t>
         </is>
@@ -3954,15 +4789,20 @@
         </is>
       </c>
       <c r="B168" t="n">
-        <v>0.9999998833369159</v>
+        <v>0.9999985813464667</v>
       </c>
       <c r="C168" t="n">
-        <v>1.166630840606834e-07</v>
+        <v>1.418653533317922e-06</v>
       </c>
       <c r="D168" t="n">
-        <v>0.9999998833369159</v>
+        <v>0.9999985813464667</v>
       </c>
       <c r="E168" t="inlineStr">
+        <is>
+          <t>o__Bacteroidales</t>
+        </is>
+      </c>
+      <c r="F168" t="inlineStr">
         <is>
           <t>o__Bacteroidales</t>
         </is>
@@ -3975,15 +4815,20 @@
         </is>
       </c>
       <c r="B169" t="n">
-        <v>0.9999902746775772</v>
+        <v>0.9999643939156915</v>
       </c>
       <c r="C169" t="n">
-        <v>9.725322422814629e-06</v>
+        <v>3.560608430857932e-05</v>
       </c>
       <c r="D169" t="n">
-        <v>0.9999902746775772</v>
+        <v>0.9999643939156915</v>
       </c>
       <c r="E169" t="inlineStr">
+        <is>
+          <t>o__Bacteroidales</t>
+        </is>
+      </c>
+      <c r="F169" t="inlineStr">
         <is>
           <t>o__Bacteroidales</t>
         </is>
@@ -3996,15 +4841,20 @@
         </is>
       </c>
       <c r="B170" t="n">
-        <v>0.9999994022604253</v>
+        <v>0.9999998912427226</v>
       </c>
       <c r="C170" t="n">
-        <v>5.977395747336123e-07</v>
+        <v>1.087572774494483e-07</v>
       </c>
       <c r="D170" t="n">
-        <v>0.9999994022604253</v>
+        <v>0.9999998912427226</v>
       </c>
       <c r="E170" t="inlineStr">
+        <is>
+          <t>o__Bacteroidales</t>
+        </is>
+      </c>
+      <c r="F170" t="inlineStr">
         <is>
           <t>o__Bacteroidales</t>
         </is>
@@ -4017,15 +4867,20 @@
         </is>
       </c>
       <c r="B171" t="n">
-        <v>0.9999869865826118</v>
+        <v>0.9999998875156493</v>
       </c>
       <c r="C171" t="n">
-        <v>1.301341738824722e-05</v>
+        <v>1.124843507598288e-07</v>
       </c>
       <c r="D171" t="n">
-        <v>0.9999869865826118</v>
+        <v>0.9999998875156493</v>
       </c>
       <c r="E171" t="inlineStr">
+        <is>
+          <t>o__Bacteroidales</t>
+        </is>
+      </c>
+      <c r="F171" t="inlineStr">
         <is>
           <t>o__Bacteroidales</t>
         </is>
@@ -4038,15 +4893,20 @@
         </is>
       </c>
       <c r="B172" t="n">
-        <v>0.9999998818202634</v>
+        <v>0.9999999285204499</v>
       </c>
       <c r="C172" t="n">
-        <v>1.181797365826479e-07</v>
+        <v>7.147955002627536e-08</v>
       </c>
       <c r="D172" t="n">
-        <v>0.9999998818202634</v>
+        <v>0.9999999285204499</v>
       </c>
       <c r="E172" t="inlineStr">
+        <is>
+          <t>o__Bacteroidales</t>
+        </is>
+      </c>
+      <c r="F172" t="inlineStr">
         <is>
           <t>o__Bacteroidales</t>
         </is>
@@ -4059,15 +4919,20 @@
         </is>
       </c>
       <c r="B173" t="n">
-        <v>0.999997543138734</v>
+        <v>0.9999974659388142</v>
       </c>
       <c r="C173" t="n">
-        <v>2.456861265959582e-06</v>
+        <v>2.534061185739675e-06</v>
       </c>
       <c r="D173" t="n">
-        <v>0.999997543138734</v>
+        <v>0.9999974659388142</v>
       </c>
       <c r="E173" t="inlineStr">
+        <is>
+          <t>o__Bacteroidales</t>
+        </is>
+      </c>
+      <c r="F173" t="inlineStr">
         <is>
           <t>o__Bacteroidales</t>
         </is>
@@ -4080,15 +4945,20 @@
         </is>
       </c>
       <c r="B174" t="n">
-        <v>0.9999492446675445</v>
+        <v>0.9999997601476623</v>
       </c>
       <c r="C174" t="n">
-        <v>5.075533245543514e-05</v>
+        <v>2.398523377132769e-07</v>
       </c>
       <c r="D174" t="n">
-        <v>0.9999492446675445</v>
+        <v>0.9999997601476623</v>
       </c>
       <c r="E174" t="inlineStr">
+        <is>
+          <t>o__Bacteroidales</t>
+        </is>
+      </c>
+      <c r="F174" t="inlineStr">
         <is>
           <t>o__Bacteroidales</t>
         </is>
@@ -4101,15 +4971,20 @@
         </is>
       </c>
       <c r="B175" t="n">
-        <v>0.9999951060448349</v>
+        <v>0.9999987963245954</v>
       </c>
       <c r="C175" t="n">
-        <v>4.893955165083792e-06</v>
+        <v>1.203675404554931e-06</v>
       </c>
       <c r="D175" t="n">
-        <v>0.9999951060448349</v>
+        <v>0.9999987963245954</v>
       </c>
       <c r="E175" t="inlineStr">
+        <is>
+          <t>o__Bacteroidales</t>
+        </is>
+      </c>
+      <c r="F175" t="inlineStr">
         <is>
           <t>o__Bacteroidales</t>
         </is>
@@ -4122,15 +4997,20 @@
         </is>
       </c>
       <c r="B176" t="n">
-        <v>0.9999995841434608</v>
+        <v>0.9999999375378146</v>
       </c>
       <c r="C176" t="n">
-        <v>4.158565392202563e-07</v>
+        <v>6.246218543460415e-08</v>
       </c>
       <c r="D176" t="n">
-        <v>0.9999995841434608</v>
+        <v>0.9999999375378146</v>
       </c>
       <c r="E176" t="inlineStr">
+        <is>
+          <t>o__Bacteroidales</t>
+        </is>
+      </c>
+      <c r="F176" t="inlineStr">
         <is>
           <t>o__Bacteroidales</t>
         </is>
@@ -4143,15 +5023,20 @@
         </is>
       </c>
       <c r="B177" t="n">
-        <v>0.9998821635952008</v>
+        <v>0.9999904825870565</v>
       </c>
       <c r="C177" t="n">
-        <v>0.0001178364047992535</v>
+        <v>9.517412943519008e-06</v>
       </c>
       <c r="D177" t="n">
-        <v>0.9998821635952008</v>
+        <v>0.9999904825870565</v>
       </c>
       <c r="E177" t="inlineStr">
+        <is>
+          <t>o__Bacteroidales</t>
+        </is>
+      </c>
+      <c r="F177" t="inlineStr">
         <is>
           <t>o__Bacteroidales</t>
         </is>
@@ -4164,15 +5049,20 @@
         </is>
       </c>
       <c r="B178" t="n">
-        <v>0.9998597984946862</v>
+        <v>0.999976305696922</v>
       </c>
       <c r="C178" t="n">
-        <v>0.0001402015053137942</v>
+        <v>2.369430307806136e-05</v>
       </c>
       <c r="D178" t="n">
-        <v>0.9998597984946862</v>
+        <v>0.999976305696922</v>
       </c>
       <c r="E178" t="inlineStr">
+        <is>
+          <t>o__Bacteroidales</t>
+        </is>
+      </c>
+      <c r="F178" t="inlineStr">
         <is>
           <t>o__Bacteroidales</t>
         </is>
@@ -4185,15 +5075,20 @@
         </is>
       </c>
       <c r="B179" t="n">
-        <v>0.9997515705456241</v>
+        <v>0.9999972006436558</v>
       </c>
       <c r="C179" t="n">
-        <v>0.0002484294543758826</v>
+        <v>2.799356344164121e-06</v>
       </c>
       <c r="D179" t="n">
-        <v>0.9997515705456241</v>
+        <v>0.9999972006436558</v>
       </c>
       <c r="E179" t="inlineStr">
+        <is>
+          <t>o__Bacteroidales</t>
+        </is>
+      </c>
+      <c r="F179" t="inlineStr">
         <is>
           <t>o__Bacteroidales</t>
         </is>
@@ -4206,15 +5101,20 @@
         </is>
       </c>
       <c r="B180" t="n">
-        <v>0.9995107456649059</v>
+        <v>0.9999981168101925</v>
       </c>
       <c r="C180" t="n">
-        <v>0.0004892543350940617</v>
+        <v>1.88318980756251e-06</v>
       </c>
       <c r="D180" t="n">
-        <v>0.9995107456649059</v>
+        <v>0.9999981168101925</v>
       </c>
       <c r="E180" t="inlineStr">
+        <is>
+          <t>o__Bacteroidales</t>
+        </is>
+      </c>
+      <c r="F180" t="inlineStr">
         <is>
           <t>o__Bacteroidales</t>
         </is>
@@ -4227,15 +5127,20 @@
         </is>
       </c>
       <c r="B181" t="n">
-        <v>0.9952026027846951</v>
+        <v>0.9992617391338631</v>
       </c>
       <c r="C181" t="n">
-        <v>0.004797397215304926</v>
+        <v>0.000738260866136895</v>
       </c>
       <c r="D181" t="n">
-        <v>0.9952026027846951</v>
+        <v>0.9992617391338631</v>
       </c>
       <c r="E181" t="inlineStr">
+        <is>
+          <t>o__Bacteroidales</t>
+        </is>
+      </c>
+      <c r="F181" t="inlineStr">
         <is>
           <t>o__Bacteroidales</t>
         </is>
@@ -4248,15 +5153,20 @@
         </is>
       </c>
       <c r="B182" t="n">
-        <v>0.9998900111694687</v>
+        <v>0.9854691901502052</v>
       </c>
       <c r="C182" t="n">
-        <v>0.0001099888305312678</v>
+        <v>0.01453080984979484</v>
       </c>
       <c r="D182" t="n">
-        <v>0.9998900111694687</v>
+        <v>0.9854691901502052</v>
       </c>
       <c r="E182" t="inlineStr">
+        <is>
+          <t>o__Bacteroidales</t>
+        </is>
+      </c>
+      <c r="F182" t="inlineStr">
         <is>
           <t>o__Bacteroidales</t>
         </is>
@@ -4269,15 +5179,20 @@
         </is>
       </c>
       <c r="B183" t="n">
-        <v>0.9999992943139691</v>
+        <v>0.999999971011537</v>
       </c>
       <c r="C183" t="n">
-        <v>7.056860309869626e-07</v>
+        <v>2.898846298915192e-08</v>
       </c>
       <c r="D183" t="n">
-        <v>0.9999992943139691</v>
+        <v>0.999999971011537</v>
       </c>
       <c r="E183" t="inlineStr">
+        <is>
+          <t>o__Bacteroidales</t>
+        </is>
+      </c>
+      <c r="F183" t="inlineStr">
         <is>
           <t>o__Bacteroidales</t>
         </is>
@@ -4290,15 +5205,20 @@
         </is>
       </c>
       <c r="B184" t="n">
-        <v>0.9999995417817117</v>
+        <v>0.9999999175516547</v>
       </c>
       <c r="C184" t="n">
-        <v>4.582182882937216e-07</v>
+        <v>8.244834523213046e-08</v>
       </c>
       <c r="D184" t="n">
-        <v>0.9999995417817117</v>
+        <v>0.9999999175516547</v>
       </c>
       <c r="E184" t="inlineStr">
+        <is>
+          <t>o__Bacteroidales</t>
+        </is>
+      </c>
+      <c r="F184" t="inlineStr">
         <is>
           <t>o__Bacteroidales</t>
         </is>
@@ -4311,15 +5231,20 @@
         </is>
       </c>
       <c r="B185" t="n">
-        <v>0.9999994302259226</v>
+        <v>0.9999999688307184</v>
       </c>
       <c r="C185" t="n">
-        <v>5.697740774093131e-07</v>
+        <v>3.116928158238139e-08</v>
       </c>
       <c r="D185" t="n">
-        <v>0.9999994302259226</v>
+        <v>0.9999999688307184</v>
       </c>
       <c r="E185" t="inlineStr">
+        <is>
+          <t>o__Bacteroidales</t>
+        </is>
+      </c>
+      <c r="F185" t="inlineStr">
         <is>
           <t>o__Bacteroidales</t>
         </is>
@@ -4332,15 +5257,20 @@
         </is>
       </c>
       <c r="B186" t="n">
-        <v>0.9999987344692075</v>
+        <v>0.999999896684683</v>
       </c>
       <c r="C186" t="n">
-        <v>1.265530792518758e-06</v>
+        <v>1.033153169870542e-07</v>
       </c>
       <c r="D186" t="n">
-        <v>0.9999987344692075</v>
+        <v>0.999999896684683</v>
       </c>
       <c r="E186" t="inlineStr">
+        <is>
+          <t>o__Bacteroidales</t>
+        </is>
+      </c>
+      <c r="F186" t="inlineStr">
         <is>
           <t>o__Bacteroidales</t>
         </is>
@@ -4353,15 +5283,20 @@
         </is>
       </c>
       <c r="B187" t="n">
-        <v>0.9999995332601295</v>
+        <v>0.9999999011378905</v>
       </c>
       <c r="C187" t="n">
-        <v>4.667398704975292e-07</v>
+        <v>9.886210947372127e-08</v>
       </c>
       <c r="D187" t="n">
-        <v>0.9999995332601295</v>
+        <v>0.9999999011378905</v>
       </c>
       <c r="E187" t="inlineStr">
+        <is>
+          <t>o__Bacteroidales</t>
+        </is>
+      </c>
+      <c r="F187" t="inlineStr">
         <is>
           <t>o__Bacteroidales</t>
         </is>
@@ -4374,15 +5309,20 @@
         </is>
       </c>
       <c r="B188" t="n">
-        <v>0.9999994528982469</v>
+        <v>0.9999996715527077</v>
       </c>
       <c r="C188" t="n">
-        <v>5.471017531223698e-07</v>
+        <v>3.28447292230345e-07</v>
       </c>
       <c r="D188" t="n">
-        <v>0.9999994528982469</v>
+        <v>0.9999996715527077</v>
       </c>
       <c r="E188" t="inlineStr">
+        <is>
+          <t>o__Bacteroidales</t>
+        </is>
+      </c>
+      <c r="F188" t="inlineStr">
         <is>
           <t>o__Bacteroidales</t>
         </is>
@@ -4395,15 +5335,20 @@
         </is>
       </c>
       <c r="B189" t="n">
-        <v>0.9999990112714786</v>
+        <v>0.9999999442773553</v>
       </c>
       <c r="C189" t="n">
-        <v>9.887285213975123e-07</v>
+        <v>5.572264467288338e-08</v>
       </c>
       <c r="D189" t="n">
-        <v>0.9999990112714786</v>
+        <v>0.9999999442773553</v>
       </c>
       <c r="E189" t="inlineStr">
+        <is>
+          <t>o__Bacteroidales</t>
+        </is>
+      </c>
+      <c r="F189" t="inlineStr">
         <is>
           <t>o__Bacteroidales</t>
         </is>
@@ -4416,15 +5361,20 @@
         </is>
       </c>
       <c r="B190" t="n">
-        <v>0.9999991456819551</v>
+        <v>0.9999996974457971</v>
       </c>
       <c r="C190" t="n">
-        <v>8.543180448443853e-07</v>
+        <v>3.025542029645359e-07</v>
       </c>
       <c r="D190" t="n">
-        <v>0.9999991456819551</v>
+        <v>0.9999996974457971</v>
       </c>
       <c r="E190" t="inlineStr">
+        <is>
+          <t>o__Bacteroidales</t>
+        </is>
+      </c>
+      <c r="F190" t="inlineStr">
         <is>
           <t>o__Bacteroidales</t>
         </is>
@@ -4437,15 +5387,20 @@
         </is>
       </c>
       <c r="B191" t="n">
-        <v>0.9999990373819904</v>
+        <v>0.9999998921828143</v>
       </c>
       <c r="C191" t="n">
-        <v>9.626180096573928e-07</v>
+        <v>1.078171857843487e-07</v>
       </c>
       <c r="D191" t="n">
-        <v>0.9999990373819904</v>
+        <v>0.9999998921828143</v>
       </c>
       <c r="E191" t="inlineStr">
+        <is>
+          <t>o__Bacteroidales</t>
+        </is>
+      </c>
+      <c r="F191" t="inlineStr">
         <is>
           <t>o__Bacteroidales</t>
         </is>
@@ -4458,15 +5413,20 @@
         </is>
       </c>
       <c r="B192" t="n">
-        <v>0.9999996364964155</v>
+        <v>0.9999999508349424</v>
       </c>
       <c r="C192" t="n">
-        <v>3.635035844918981e-07</v>
+        <v>4.916505759929471e-08</v>
       </c>
       <c r="D192" t="n">
-        <v>0.9999996364964155</v>
+        <v>0.9999999508349424</v>
       </c>
       <c r="E192" t="inlineStr">
+        <is>
+          <t>o__Bacteroidales</t>
+        </is>
+      </c>
+      <c r="F192" t="inlineStr">
         <is>
           <t>o__Bacteroidales</t>
         </is>
@@ -4479,15 +5439,20 @@
         </is>
       </c>
       <c r="B193" t="n">
-        <v>0.9999997812313325</v>
+        <v>0.9999999703319765</v>
       </c>
       <c r="C193" t="n">
-        <v>2.187686675545064e-07</v>
+        <v>2.966802343330913e-08</v>
       </c>
       <c r="D193" t="n">
-        <v>0.9999997812313325</v>
+        <v>0.9999999703319765</v>
       </c>
       <c r="E193" t="inlineStr">
+        <is>
+          <t>o__Bacteroidales</t>
+        </is>
+      </c>
+      <c r="F193" t="inlineStr">
         <is>
           <t>o__Bacteroidales</t>
         </is>
@@ -4500,15 +5465,20 @@
         </is>
       </c>
       <c r="B194" t="n">
-        <v>0.9999998577584497</v>
+        <v>0.999996857355156</v>
       </c>
       <c r="C194" t="n">
-        <v>1.42241550371287e-07</v>
+        <v>3.142644843981133e-06</v>
       </c>
       <c r="D194" t="n">
-        <v>0.9999998577584497</v>
+        <v>0.999996857355156</v>
       </c>
       <c r="E194" t="inlineStr">
+        <is>
+          <t>o__Bacteroidales</t>
+        </is>
+      </c>
+      <c r="F194" t="inlineStr">
         <is>
           <t>o__Bacteroidales</t>
         </is>
@@ -4521,15 +5491,20 @@
         </is>
       </c>
       <c r="B195" t="n">
-        <v>0.9999928502742066</v>
+        <v>0.9999996534231215</v>
       </c>
       <c r="C195" t="n">
-        <v>7.149725793363602e-06</v>
+        <v>3.465768784918624e-07</v>
       </c>
       <c r="D195" t="n">
-        <v>0.9999928502742066</v>
+        <v>0.9999996534231215</v>
       </c>
       <c r="E195" t="inlineStr">
+        <is>
+          <t>o__Bacteroidales</t>
+        </is>
+      </c>
+      <c r="F195" t="inlineStr">
         <is>
           <t>o__Bacteroidales</t>
         </is>
@@ -4542,15 +5517,20 @@
         </is>
       </c>
       <c r="B196" t="n">
-        <v>0.9999983257024118</v>
+        <v>0.9999551615799247</v>
       </c>
       <c r="C196" t="n">
-        <v>1.674297588286329e-06</v>
+        <v>4.483842007526393e-05</v>
       </c>
       <c r="D196" t="n">
-        <v>0.9999983257024118</v>
+        <v>0.9999551615799247</v>
       </c>
       <c r="E196" t="inlineStr">
+        <is>
+          <t>o__Bacteroidales</t>
+        </is>
+      </c>
+      <c r="F196" t="inlineStr">
         <is>
           <t>o__Bacteroidales</t>
         </is>
@@ -4563,15 +5543,20 @@
         </is>
       </c>
       <c r="B197" t="n">
-        <v>0.999999589296972</v>
+        <v>0.9999999737540919</v>
       </c>
       <c r="C197" t="n">
-        <v>4.107030280405561e-07</v>
+        <v>2.624590816646345e-08</v>
       </c>
       <c r="D197" t="n">
-        <v>0.999999589296972</v>
+        <v>0.9999999737540919</v>
       </c>
       <c r="E197" t="inlineStr">
+        <is>
+          <t>o__Bacteroidales</t>
+        </is>
+      </c>
+      <c r="F197" t="inlineStr">
         <is>
           <t>o__Bacteroidales</t>
         </is>
@@ -4584,15 +5569,20 @@
         </is>
       </c>
       <c r="B198" t="n">
-        <v>0.9999906090660735</v>
+        <v>0.9999995640400834</v>
       </c>
       <c r="C198" t="n">
-        <v>9.390933926474553e-06</v>
+        <v>4.359599165991611e-07</v>
       </c>
       <c r="D198" t="n">
-        <v>0.9999906090660735</v>
+        <v>0.9999995640400834</v>
       </c>
       <c r="E198" t="inlineStr">
+        <is>
+          <t>o__Bacteroidales</t>
+        </is>
+      </c>
+      <c r="F198" t="inlineStr">
         <is>
           <t>o__Bacteroidales</t>
         </is>
@@ -4605,15 +5595,20 @@
         </is>
       </c>
       <c r="B199" t="n">
-        <v>0.9999876313971542</v>
+        <v>0.9999995608001174</v>
       </c>
       <c r="C199" t="n">
-        <v>1.236860284578602e-05</v>
+        <v>4.39199882600132e-07</v>
       </c>
       <c r="D199" t="n">
-        <v>0.9999876313971542</v>
+        <v>0.9999995608001174</v>
       </c>
       <c r="E199" t="inlineStr">
+        <is>
+          <t>o__Bacteroidales</t>
+        </is>
+      </c>
+      <c r="F199" t="inlineStr">
         <is>
           <t>o__Bacteroidales</t>
         </is>
@@ -4626,15 +5621,20 @@
         </is>
       </c>
       <c r="B200" t="n">
-        <v>0.9999902862577207</v>
+        <v>0.9999963013127356</v>
       </c>
       <c r="C200" t="n">
-        <v>9.713742279346822e-06</v>
+        <v>3.6986872643047e-06</v>
       </c>
       <c r="D200" t="n">
-        <v>0.9999902862577207</v>
+        <v>0.9999963013127356</v>
       </c>
       <c r="E200" t="inlineStr">
+        <is>
+          <t>o__Bacteroidales</t>
+        </is>
+      </c>
+      <c r="F200" t="inlineStr">
         <is>
           <t>o__Bacteroidales</t>
         </is>
@@ -4647,15 +5647,20 @@
         </is>
       </c>
       <c r="B201" t="n">
-        <v>0.9999525667867241</v>
+        <v>0.9999994846979403</v>
       </c>
       <c r="C201" t="n">
-        <v>4.74332132759059e-05</v>
+        <v>5.153020597081534e-07</v>
       </c>
       <c r="D201" t="n">
-        <v>0.9999525667867241</v>
+        <v>0.9999994846979403</v>
       </c>
       <c r="E201" t="inlineStr">
+        <is>
+          <t>o__Bacteroidales</t>
+        </is>
+      </c>
+      <c r="F201" t="inlineStr">
         <is>
           <t>o__Bacteroidales</t>
         </is>
@@ -4668,15 +5673,20 @@
         </is>
       </c>
       <c r="B202" t="n">
-        <v>0.9999970003671156</v>
+        <v>0.9999998900248668</v>
       </c>
       <c r="C202" t="n">
-        <v>2.999632884377056e-06</v>
+        <v>1.099751332190175e-07</v>
       </c>
       <c r="D202" t="n">
-        <v>0.9999970003671156</v>
+        <v>0.9999998900248668</v>
       </c>
       <c r="E202" t="inlineStr">
+        <is>
+          <t>o__Bacteroidales</t>
+        </is>
+      </c>
+      <c r="F202" t="inlineStr">
         <is>
           <t>o__Bacteroidales</t>
         </is>
@@ -4689,15 +5699,20 @@
         </is>
       </c>
       <c r="B203" t="n">
-        <v>0.9999985867989116</v>
+        <v>0.9999980867510462</v>
       </c>
       <c r="C203" t="n">
-        <v>1.413201088354794e-06</v>
+        <v>1.913248953873386e-06</v>
       </c>
       <c r="D203" t="n">
-        <v>0.9999985867989116</v>
+        <v>0.9999980867510462</v>
       </c>
       <c r="E203" t="inlineStr">
+        <is>
+          <t>o__Bacteroidales</t>
+        </is>
+      </c>
+      <c r="F203" t="inlineStr">
         <is>
           <t>o__Bacteroidales</t>
         </is>
@@ -4710,15 +5725,20 @@
         </is>
       </c>
       <c r="B204" t="n">
-        <v>0.9999985867989116</v>
+        <v>0.9999980867510462</v>
       </c>
       <c r="C204" t="n">
-        <v>1.413201088354794e-06</v>
+        <v>1.913248953873386e-06</v>
       </c>
       <c r="D204" t="n">
-        <v>0.9999985867989116</v>
+        <v>0.9999980867510462</v>
       </c>
       <c r="E204" t="inlineStr">
+        <is>
+          <t>o__Bacteroidales</t>
+        </is>
+      </c>
+      <c r="F204" t="inlineStr">
         <is>
           <t>o__Bacteroidales</t>
         </is>
@@ -4731,15 +5751,20 @@
         </is>
       </c>
       <c r="B205" t="n">
-        <v>0.9999985867989116</v>
+        <v>0.9999980867510462</v>
       </c>
       <c r="C205" t="n">
-        <v>1.413201088354794e-06</v>
+        <v>1.913248953873386e-06</v>
       </c>
       <c r="D205" t="n">
-        <v>0.9999985867989116</v>
+        <v>0.9999980867510462</v>
       </c>
       <c r="E205" t="inlineStr">
+        <is>
+          <t>o__Bacteroidales</t>
+        </is>
+      </c>
+      <c r="F205" t="inlineStr">
         <is>
           <t>o__Bacteroidales</t>
         </is>
@@ -4752,15 +5777,20 @@
         </is>
       </c>
       <c r="B206" t="n">
-        <v>0.9999985867989116</v>
+        <v>0.9999980867510462</v>
       </c>
       <c r="C206" t="n">
-        <v>1.413201088354794e-06</v>
+        <v>1.913248953873386e-06</v>
       </c>
       <c r="D206" t="n">
-        <v>0.9999985867989116</v>
+        <v>0.9999980867510462</v>
       </c>
       <c r="E206" t="inlineStr">
+        <is>
+          <t>o__Bacteroidales</t>
+        </is>
+      </c>
+      <c r="F206" t="inlineStr">
         <is>
           <t>o__Bacteroidales</t>
         </is>
@@ -4773,15 +5803,20 @@
         </is>
       </c>
       <c r="B207" t="n">
-        <v>0.9999985867989116</v>
+        <v>0.9999980867510462</v>
       </c>
       <c r="C207" t="n">
-        <v>1.413201088354794e-06</v>
+        <v>1.913248953873386e-06</v>
       </c>
       <c r="D207" t="n">
-        <v>0.9999985867989116</v>
+        <v>0.9999980867510462</v>
       </c>
       <c r="E207" t="inlineStr">
+        <is>
+          <t>o__Bacteroidales</t>
+        </is>
+      </c>
+      <c r="F207" t="inlineStr">
         <is>
           <t>o__Bacteroidales</t>
         </is>
@@ -4794,15 +5829,20 @@
         </is>
       </c>
       <c r="B208" t="n">
-        <v>0.9999985867989116</v>
+        <v>0.9999980867510462</v>
       </c>
       <c r="C208" t="n">
-        <v>1.413201088354794e-06</v>
+        <v>1.913248953873386e-06</v>
       </c>
       <c r="D208" t="n">
-        <v>0.9999985867989116</v>
+        <v>0.9999980867510462</v>
       </c>
       <c r="E208" t="inlineStr">
+        <is>
+          <t>o__Bacteroidales</t>
+        </is>
+      </c>
+      <c r="F208" t="inlineStr">
         <is>
           <t>o__Bacteroidales</t>
         </is>
@@ -4815,15 +5855,20 @@
         </is>
       </c>
       <c r="B209" t="n">
-        <v>0.9999985867989116</v>
+        <v>0.9999980867510462</v>
       </c>
       <c r="C209" t="n">
-        <v>1.413201088354794e-06</v>
+        <v>1.913248953873386e-06</v>
       </c>
       <c r="D209" t="n">
-        <v>0.9999985867989116</v>
+        <v>0.9999980867510462</v>
       </c>
       <c r="E209" t="inlineStr">
+        <is>
+          <t>o__Bacteroidales</t>
+        </is>
+      </c>
+      <c r="F209" t="inlineStr">
         <is>
           <t>o__Bacteroidales</t>
         </is>
@@ -4836,15 +5881,20 @@
         </is>
       </c>
       <c r="B210" t="n">
-        <v>0.9999985867989116</v>
+        <v>0.9999980867510462</v>
       </c>
       <c r="C210" t="n">
-        <v>1.413201088354794e-06</v>
+        <v>1.913248953873386e-06</v>
       </c>
       <c r="D210" t="n">
-        <v>0.9999985867989116</v>
+        <v>0.9999980867510462</v>
       </c>
       <c r="E210" t="inlineStr">
+        <is>
+          <t>o__Bacteroidales</t>
+        </is>
+      </c>
+      <c r="F210" t="inlineStr">
         <is>
           <t>o__Bacteroidales</t>
         </is>
@@ -4857,15 +5907,20 @@
         </is>
       </c>
       <c r="B211" t="n">
-        <v>0.9999985867989116</v>
+        <v>0.9999980867510462</v>
       </c>
       <c r="C211" t="n">
-        <v>1.413201088354794e-06</v>
+        <v>1.913248953873386e-06</v>
       </c>
       <c r="D211" t="n">
-        <v>0.9999985867989116</v>
+        <v>0.9999980867510462</v>
       </c>
       <c r="E211" t="inlineStr">
+        <is>
+          <t>o__Bacteroidales</t>
+        </is>
+      </c>
+      <c r="F211" t="inlineStr">
         <is>
           <t>o__Bacteroidales</t>
         </is>
@@ -4878,15 +5933,20 @@
         </is>
       </c>
       <c r="B212" t="n">
-        <v>0.9999985867989116</v>
+        <v>0.9999980867510462</v>
       </c>
       <c r="C212" t="n">
-        <v>1.413201088354794e-06</v>
+        <v>1.913248953873386e-06</v>
       </c>
       <c r="D212" t="n">
-        <v>0.9999985867989116</v>
+        <v>0.9999980867510462</v>
       </c>
       <c r="E212" t="inlineStr">
+        <is>
+          <t>o__Bacteroidales</t>
+        </is>
+      </c>
+      <c r="F212" t="inlineStr">
         <is>
           <t>o__Bacteroidales</t>
         </is>
